--- a/High Level Scenarios FB.xlsx
+++ b/High Level Scenarios FB.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aya\Egy FWD\Mobile app testing\MobileApplicationTesting-Facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35D4FE-8051-4D79-B499-3D550E02F907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A8006-3CA1-4588-9F64-E80DE213C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" activeTab="2" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Analysis" sheetId="1" r:id="rId1"/>
     <sheet name="General Mobile app checklist" sheetId="2" r:id="rId2"/>
     <sheet name="FR1 Adding posts" sheetId="3" r:id="rId3"/>
+    <sheet name="FR2 Adding Stories" sheetId="4" r:id="rId4"/>
+    <sheet name="FR3 Messaging" sheetId="5" r:id="rId5"/>
+    <sheet name="Traceability Matrix" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="689">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -515,15 +518,7 @@
     <t>Check the color of the text when there's a typo error</t>
   </si>
   <si>
-    <t>1. click on "What's on your mind" box from the home page
-2. enter invalid english words
-3. check the color of the line under these words</t>
-  </si>
-  <si>
     <t>1. color of the line under the invalid words should be red</t>
-  </si>
-  <si>
-    <t>GUI Test Scenarios</t>
   </si>
   <si>
     <t>1. What's on your mind" text box should be displayed with the below options:
@@ -582,9 +577,6 @@
 specific friends</t>
   </si>
   <si>
-    <t>Adding posts positive test cases</t>
-  </si>
-  <si>
     <t>Adding posts | Home page - Positive test cases</t>
   </si>
   <si>
@@ -631,12 +623,6 @@
 2. Try to click on "Tag people" button</t>
   </si>
   <si>
-    <t>1. A list of available friends on facebook should be displayed</t>
-  </si>
-  <si>
-    <t>1. A list of available friends on facebook is displayed</t>
-  </si>
-  <si>
     <t>Validate functionality of "Feeling/activity" button</t>
   </si>
   <si>
@@ -772,6 +758,1489 @@
   </si>
   <si>
     <t>Facebook-Home-Positive-10</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only one photo</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. enter text and attach a photo to it
+3. click on "Post button"</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple photos</t>
+  </si>
+  <si>
+    <t>1. post with all attached photos should be added</t>
+  </si>
+  <si>
+    <t>1. post with all attached photos is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only a video</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. attach multiple photos to it
+3. click on "Post button"</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. attach a video to it
+3. click on "Post button"</t>
+  </si>
+  <si>
+    <t>1. post with a video should be added</t>
+  </si>
+  <si>
+    <t>1. post with a video is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple videos</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. attach multiple videos to it
+3. click on "Post button"</t>
+  </si>
+  <si>
+    <t>1. post with all attached videos should be added</t>
+  </si>
+  <si>
+    <t>1. post with all attached videos is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a live video</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "Live video" button
+3. post the live after finishing it</t>
+  </si>
+  <si>
+    <t>1. live video should be started
+2. post with live video should be added</t>
+  </si>
+  <si>
+    <t>1. live video is started
+2. post with live video is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with an album that includes both photos &amp; videos</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. attach multiple photos and videos to it
+3. click on "Post button"</t>
+  </si>
+  <si>
+    <t>1. post with all attached videos and photos should be added</t>
+  </si>
+  <si>
+    <t>1. post with all attached videos and photos is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a captured photo using the camera</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "Camera" button
+3. take a picture
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post with the captured photo should be added</t>
+  </si>
+  <si>
+    <t>1. post with the captured photo is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a GIF</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "GIF" button
+3. select a GIF
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post with the selected GIF should be added</t>
+  </si>
+  <si>
+    <t>1. post with the selected GIF is added</t>
+  </si>
+  <si>
+    <t>validate adding a post with a feeling/activity</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "Feeling/Activity" button
+3. select a feeling or an activity
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post the post with the selected feeling/activity is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post and tagging people in it</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "Tag people" button
+3. select people to tag from the friends' list
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post with the selected feeling/activity should be added</t>
+  </si>
+  <si>
+    <t>1. people should be tagged in the post
+2. post should be added</t>
+  </si>
+  <si>
+    <t>1. people are tagged in the post
+2. post is added</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "background color" button
+3. select a background for the post
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. a post should be added with the selected background</t>
+  </si>
+  <si>
+    <t>1. a post is added with the selected background</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background and a sticker to it</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "background color" button
+3. select a background for the post
+4. click on "Sticker" button
+5. select a sticker
+6. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. a post should be added with the selected background and sticker</t>
+  </si>
+  <si>
+    <t>1. a post is added with the selected background and sticker</t>
+  </si>
+  <si>
+    <t>Validate saving a post as a draft</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. enter a text
+3. try to go back without saving/posting the post
+4. click on "Save as a draft" button</t>
+  </si>
+  <si>
+    <t>1. post should be saved as a draft</t>
+  </si>
+  <si>
+    <t>1. post is saved as a draft</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy public</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. compose a post
+3. select a privacy "Public"
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post is shared with "public" privacy</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-11</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-12</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-13</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-14</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-15</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-16</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-17</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-18</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-19</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-20</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-21</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-22</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-23</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-24</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy "Friends"</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. compose a post
+3. select a privacy "Friends"
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post is shared with "Friends" privacy</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy "specific friends"</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. compose a post
+3. select a privacy "specific friends"
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post should be shared with specific friends</t>
+  </si>
+  <si>
+    <t>1. post is shared with specific friends</t>
+  </si>
+  <si>
+    <t>1. post should be shared with "Friends" only</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy "Only me"</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. compose a post
+3. select a privacy "Only me"
+4. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. post should be shared with "Only me" so no one except the user can see it</t>
+  </si>
+  <si>
+    <t>1. post is shared with "Only me" so no one except the user can see it</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a location</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. Location feature should be enabled on the device
+3. click on "Check-in" button
+4. select a location
+5. click on "post" button</t>
+  </si>
+  <si>
+    <t>1. post should be shared with the selected location</t>
+  </si>
+  <si>
+    <t>1. post is shared with the selected location</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-25</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-26</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-27</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-28</t>
+  </si>
+  <si>
+    <t>Validate searching for a GIF in GIF list</t>
+  </si>
+  <si>
+    <t>Validate searching for a sticker in stickers list</t>
+  </si>
+  <si>
+    <t>Validate searching for a feeling in feelings list</t>
+  </si>
+  <si>
+    <t>Validate searching for an activity in activities list</t>
+  </si>
+  <si>
+    <t>Validate searching for a location in locations list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on "What's on your mind" box
+2. click on "GIF" button
+3. search for a GIF </t>
+  </si>
+  <si>
+    <t>search for "Flower"</t>
+  </si>
+  <si>
+    <t>1. all GIFs with the related search keyword should be retrieved</t>
+  </si>
+  <si>
+    <t>1. all GIFs with the related search keyword are retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on "What's on your mind" box
+2. click on "sticker" button
+3. search for a sticker </t>
+  </si>
+  <si>
+    <t>1. all stickers with the related search keyword should be retrieved</t>
+  </si>
+  <si>
+    <t>1. all stickers with the related search keyword are retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on "What's on your mind" box
+2. click on "Feeling/activity" button
+3. search for a feeling from feelings tab </t>
+  </si>
+  <si>
+    <t>search for "sa"</t>
+  </si>
+  <si>
+    <t>1. all feelings with the related search keyword should be retrieved
+for ex (sad, satisfied, sarcastic, safe)</t>
+  </si>
+  <si>
+    <t>1. all feelings with the related search keyword are retrieved
+for ex (sad, satisfied, sarcastic, safe)</t>
+  </si>
+  <si>
+    <t>type "t" in the search bar</t>
+  </si>
+  <si>
+    <t>1. all locations with the related search keyword should be retrieved</t>
+  </si>
+  <si>
+    <t>1. all locations with the related search keyword are retrieved</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-29</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-30</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-31</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-32</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-33</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on profile page</t>
+  </si>
+  <si>
+    <t>Requirements Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Facebook Mobile Application</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Test Suite ID</t>
+  </si>
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>Related Bug ID</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Adding posts</t>
+  </si>
+  <si>
+    <t>FMA-10</t>
+  </si>
+  <si>
+    <t>Validate adding a post from user's profile page</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. write a post
+3. click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. a post should be successfully posted on the user's profile</t>
+  </si>
+  <si>
+    <t>1. a post is successfully posted on the user's profile</t>
+  </si>
+  <si>
+    <t>Validate adding a post on a group</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on a group wall</t>
+  </si>
+  <si>
+    <t>1. a post should be added successfully to the group</t>
+  </si>
+  <si>
+    <t>1. a post is added successfully to the group</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box from the home page
+2. enter invalid English words
+3. check the color of the line under these words</t>
+  </si>
+  <si>
+    <t>1. A list of available friends on Facebook should be displayed</t>
+  </si>
+  <si>
+    <t>1. A list of available friends on Facebook is displayed</t>
+  </si>
+  <si>
+    <t>1. post should be shared with "public" so anyone on Facebook can see it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on "What's on your mind" box
+2. click on "Feeling/activity" button
+3. search for an activity from Activities tab </t>
+  </si>
+  <si>
+    <t>1. all activities with the related search keyword should be retrieved
+for ex (Travelling to, Thinking about)</t>
+  </si>
+  <si>
+    <t>1. all activities with the related search keyword are retrieved
+for ex (Travelling to, Thinking about)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on "What's on your mind" box
+2. click on "location" button
+3. search for a location </t>
+  </si>
+  <si>
+    <t>Validate adding a post to a friend's wall</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on a friend's page</t>
+  </si>
+  <si>
+    <t>1. a post should be successfully posted on the friend's profile</t>
+  </si>
+  <si>
+    <t>1. a post is successfully posted on the friend's profile</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-34</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-35</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-36</t>
+  </si>
+  <si>
+    <t>Adding posts | Home page - Negative test cases</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Validate uploading a photo without internet connection</t>
+  </si>
+  <si>
+    <t>Check UI when trying to add a post with very long letters</t>
+  </si>
+  <si>
+    <t>Validate adding a post on a friend's wall whose wall is not editable</t>
+  </si>
+  <si>
+    <t>validate editing an already existing post with text only</t>
+  </si>
+  <si>
+    <t>validate editing an already existing post with only a photo</t>
+  </si>
+  <si>
+    <t>Validate editing an already existing post with a video</t>
+  </si>
+  <si>
+    <t>Validate editing an already existing post with a GIF</t>
+  </si>
+  <si>
+    <t>Validate editing an already existing post with a sticker</t>
+  </si>
+  <si>
+    <t>Validate editing an already existing post with a background color</t>
+  </si>
+  <si>
+    <t>Validate editing an already existing post with a live video</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with text only</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with a video</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with a GIF</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with a sticker</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with a background color</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with a live video</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with multiple photos and videos</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing post with multiple GIFs and stickers</t>
+  </si>
+  <si>
+    <t>Validate editing a post with friends tagged in it</t>
+  </si>
+  <si>
+    <t>Validate editing a post with a location</t>
+  </si>
+  <si>
+    <t>Validate editing a post from profile page</t>
+  </si>
+  <si>
+    <t>Validate editing a post on a friend's page</t>
+  </si>
+  <si>
+    <t>Validate editing a post on a group</t>
+  </si>
+  <si>
+    <t>Validate deleting a post with friends tagged in it</t>
+  </si>
+  <si>
+    <t>Validate deleting a post with a location</t>
+  </si>
+  <si>
+    <t>Validate deleting a post from profile page</t>
+  </si>
+  <si>
+    <t>Validate deleting a post on a friend's page</t>
+  </si>
+  <si>
+    <t>Validate deleting a post on a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with text only (no media) from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only one photo from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple photos from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only a video from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple videos from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a live video from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with an album that includes both photos &amp; videos from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a captured photo using the camera from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a GIF from user's profile page</t>
+  </si>
+  <si>
+    <t>validate adding a post with a feeling/activity from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post and tagging people in it from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background and a sticker to it from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate saving a post as a draft from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy public from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy "Friends" from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy "specific friends" from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with privacy "Only me" from user's profile page</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a location from user's profile page</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on user's profile page</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-37</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-38</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-39</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-40</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-41</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-42</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-43</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-44</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-45</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-46</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-47</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-48</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-49</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-50</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-51</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-52</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-53</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-54</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-55</t>
+  </si>
+  <si>
+    <t>Validate adding a post with text only (no media) from friend's wall</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only one photo from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple photos from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only a video from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple videos from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a live video from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with an album that includes both photos &amp; videos from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a captured photo using the camera from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a GIF from friend's wall</t>
+  </si>
+  <si>
+    <t>validate adding a post with a feeling/activity from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post and tagging people in it from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background and a sticker to it from friend's wall</t>
+  </si>
+  <si>
+    <t>Validate saving a post as a draft from friend's wall</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-56</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-57</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-58</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-59</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-60</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-61</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-62</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-63</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-64</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-65</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-66</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-67</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-68</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-69</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-70</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-71</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-72</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-73</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-74</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-75</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-76</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-77</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-78</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-79</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-80</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-81</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Positive-82</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on group</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-01</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-02</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-03</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-04</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-05</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-06</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-07</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-08</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-09</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-10</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-11</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-12</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-13</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-14</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-15</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-16</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-17</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-18</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-19</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-20</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-21</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-22</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-23</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-24</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-25</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-26</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-27</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-28</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-29</t>
+  </si>
+  <si>
+    <t>Facebook-Home-Negative-30</t>
+  </si>
+  <si>
+    <t>Validate adding a post with text only (no media) to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only one photo to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple photos to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with only a video to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with multiple videos to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a live video to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with an album that includes both photos &amp; videos to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a captured photo using the camera to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a GIF to a group</t>
+  </si>
+  <si>
+    <t>validate adding a post with a feeling/activity to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post and tagging people in it to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with a background and a sticker to it to a group</t>
+  </si>
+  <si>
+    <t>Validate adding a post with no internet connection</t>
+  </si>
+  <si>
+    <t>Validate adding a post with empty content</t>
+  </si>
+  <si>
+    <t>1. internet connection should be disabled
+2. user should be already logged in
+3. user should be on home page</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. click on "post" button</t>
+  </si>
+  <si>
+    <t>1. post should not be posted</t>
+  </si>
+  <si>
+    <t>1. post is not posted</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. try to upload a photo
+3. click on "post" button</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. write Germany sentences with very long words
+3. check UI</t>
+  </si>
+  <si>
+    <t>enter "Kraftfahrzeug-Haftpflichtversicherung" multiple times in "What's in your mind" box</t>
+  </si>
+  <si>
+    <t>1. text should be wrapped and should not go out of the box</t>
+  </si>
+  <si>
+    <t>1. text is not wrapped and does not go out of the box</t>
+  </si>
+  <si>
+    <t>1. click on "What's on your mind" box
+2. do not write anything 
+3. try to click on "Post" button</t>
+  </si>
+  <si>
+    <t>1. "post" button should be dimmed</t>
+  </si>
+  <si>
+    <t>1. "post" button is dimmed</t>
+  </si>
+  <si>
+    <t>1. A friend should set privacy setting to disable anyone from posting on his profile
+2. user should be on this friend's page</t>
+  </si>
+  <si>
+    <t>1. try to post on a friend's wall</t>
+  </si>
+  <si>
+    <t>1. user should not be able to post on a friend's wall</t>
+  </si>
+  <si>
+    <t>1. user is not able to post on a friend's wall</t>
+  </si>
+  <si>
+    <t>1. a post with text only should be already added</t>
+  </si>
+  <si>
+    <t>1. a post with a video should be already added</t>
+  </si>
+  <si>
+    <t>1. a post with a GIF should be already added</t>
+  </si>
+  <si>
+    <t>1. a post with a sticker should be already added</t>
+  </si>
+  <si>
+    <t>1. a with a background color should be already added</t>
+  </si>
+  <si>
+    <t>1. a with a live video should be already added</t>
+  </si>
+  <si>
+    <t>1. a multiple photos and videos should be already added</t>
+  </si>
+  <si>
+    <t>1. a multiple GIFs and stickers should be already added</t>
+  </si>
+  <si>
+    <t>1. edit a post</t>
+  </si>
+  <si>
+    <t>1. post should be edited</t>
+  </si>
+  <si>
+    <t>1. post is edited</t>
+  </si>
+  <si>
+    <t>1. a post with photo only should be already added</t>
+  </si>
+  <si>
+    <t>1. edit a post (add a photo or add text or rotate the photo)</t>
+  </si>
+  <si>
+    <t>1. a post with video should be already added</t>
+  </si>
+  <si>
+    <t>1. edit a post (add a photo or add text)</t>
+  </si>
+  <si>
+    <t>1. a post with a background color should be already added</t>
+  </si>
+  <si>
+    <t>1. a post with a live video should be already added</t>
+  </si>
+  <si>
+    <t>1. a post with a friend tagged in should be already added</t>
+  </si>
+  <si>
+    <t>1. a post with a location should be already added</t>
+  </si>
+  <si>
+    <t>1. a post added on a profile page should be already added
+2. user should be on the profile page</t>
+  </si>
+  <si>
+    <t>1. a post added on a firend's page should be already added
+2. user should be on a group</t>
+  </si>
+  <si>
+    <t>1. a post on a group should be already added</t>
+  </si>
+  <si>
+    <t>1. delete a post</t>
+  </si>
+  <si>
+    <t>1. post should be deleted</t>
+  </si>
+  <si>
+    <t>1. post is deleted</t>
+  </si>
+  <si>
+    <t>FMA-9</t>
+  </si>
+  <si>
+    <t>FMA-5</t>
+  </si>
+  <si>
+    <t>FMA-6</t>
+  </si>
+  <si>
+    <t>FMA-7</t>
+  </si>
+  <si>
+    <t>FMA-8</t>
+  </si>
+  <si>
+    <t>FMA-12</t>
+  </si>
+  <si>
+    <t>FMA-13</t>
+  </si>
+  <si>
+    <t>FMA-14</t>
+  </si>
+  <si>
+    <t>FMA-15</t>
+  </si>
+  <si>
+    <t>FMA-16</t>
+  </si>
+  <si>
+    <t>FMA-17</t>
+  </si>
+  <si>
+    <t>FMA-18</t>
+  </si>
+  <si>
+    <t>FMA-19</t>
+  </si>
+  <si>
+    <t>FMA-20</t>
+  </si>
+  <si>
+    <t>FMA-21</t>
+  </si>
+  <si>
+    <t>FMA-22</t>
+  </si>
+  <si>
+    <t>FMA-23</t>
+  </si>
+  <si>
+    <t>FMA-24</t>
+  </si>
+  <si>
+    <t>FMA-25</t>
+  </si>
+  <si>
+    <t>FMA-26</t>
+  </si>
+  <si>
+    <t>FMA-27</t>
+  </si>
+  <si>
+    <t>FMA-28</t>
+  </si>
+  <si>
+    <t>FMA-29</t>
+  </si>
+  <si>
+    <t>FMA-30</t>
+  </si>
+  <si>
+    <t>FMA-31</t>
+  </si>
+  <si>
+    <t>FMA-32</t>
+  </si>
+  <si>
+    <t>FMA-33</t>
+  </si>
+  <si>
+    <t>FMA-34</t>
+  </si>
+  <si>
+    <t>FMA-35</t>
+  </si>
+  <si>
+    <t>FMA-36</t>
+  </si>
+  <si>
+    <t>FMA-37</t>
+  </si>
+  <si>
+    <t>FMA-38</t>
+  </si>
+  <si>
+    <t>FMA-39</t>
+  </si>
+  <si>
+    <t>FMA-40</t>
+  </si>
+  <si>
+    <t>FMA-41</t>
+  </si>
+  <si>
+    <t>FMA-42</t>
+  </si>
+  <si>
+    <t>FMA-43</t>
+  </si>
+  <si>
+    <t>FMA-44</t>
+  </si>
+  <si>
+    <t>FMA-45</t>
+  </si>
+  <si>
+    <t>FMA-46</t>
+  </si>
+  <si>
+    <t>FMA-47</t>
+  </si>
+  <si>
+    <t>FMA-48</t>
+  </si>
+  <si>
+    <t>FMA-49</t>
+  </si>
+  <si>
+    <t>FMA-50</t>
+  </si>
+  <si>
+    <t>FMA-51</t>
+  </si>
+  <si>
+    <t>FMA-52</t>
+  </si>
+  <si>
+    <t>FMA-53</t>
+  </si>
+  <si>
+    <t>FMA-54</t>
+  </si>
+  <si>
+    <t>FMA-55</t>
+  </si>
+  <si>
+    <t>FMA-56</t>
+  </si>
+  <si>
+    <t>FMA-57</t>
+  </si>
+  <si>
+    <t>FMA-58</t>
+  </si>
+  <si>
+    <t>FMA-59</t>
+  </si>
+  <si>
+    <t>FMA-60</t>
+  </si>
+  <si>
+    <t>FMA-61</t>
+  </si>
+  <si>
+    <t>FMA-62</t>
+  </si>
+  <si>
+    <t>FMA-63</t>
+  </si>
+  <si>
+    <t>FMA-64</t>
+  </si>
+  <si>
+    <t>FMA-65</t>
+  </si>
+  <si>
+    <t>FMA-66</t>
+  </si>
+  <si>
+    <t>FMA-67</t>
+  </si>
+  <si>
+    <t>FMA-68</t>
+  </si>
+  <si>
+    <t>FMA-69</t>
+  </si>
+  <si>
+    <t>FMA-70</t>
+  </si>
+  <si>
+    <t>FMA-71</t>
+  </si>
+  <si>
+    <t>FMA-72</t>
+  </si>
+  <si>
+    <t>FMA-73</t>
+  </si>
+  <si>
+    <t>FMA-74</t>
+  </si>
+  <si>
+    <t>FMA-75</t>
+  </si>
+  <si>
+    <t>FMA-76</t>
+  </si>
+  <si>
+    <t>FMA-77</t>
+  </si>
+  <si>
+    <t>FMA-78</t>
+  </si>
+  <si>
+    <t>FMA-79</t>
+  </si>
+  <si>
+    <t>FMA-80</t>
+  </si>
+  <si>
+    <t>FMA-81</t>
+  </si>
+  <si>
+    <t>FMA-82</t>
+  </si>
+  <si>
+    <t>FMA-83</t>
+  </si>
+  <si>
+    <t>FMA-84</t>
+  </si>
+  <si>
+    <t>FMA-85</t>
+  </si>
+  <si>
+    <t>FMA-86</t>
+  </si>
+  <si>
+    <t>FMA-87</t>
+  </si>
+  <si>
+    <t>FMA-88</t>
+  </si>
+  <si>
+    <t>FMA-89</t>
+  </si>
+  <si>
+    <t>FMA-90</t>
+  </si>
+  <si>
+    <t>FMA-91</t>
+  </si>
+  <si>
+    <t>FMA-92</t>
+  </si>
+  <si>
+    <t>FMA-93</t>
+  </si>
+  <si>
+    <t>FMA-95</t>
+  </si>
+  <si>
+    <t>FMA-94</t>
+  </si>
+  <si>
+    <t>FMA-96</t>
+  </si>
+  <si>
+    <t>FMA-97</t>
+  </si>
+  <si>
+    <t>FMA-98</t>
+  </si>
+  <si>
+    <t>FMA-99</t>
+  </si>
+  <si>
+    <t>FMA-100</t>
+  </si>
+  <si>
+    <t>FMA-101</t>
+  </si>
+  <si>
+    <t>FMA-102</t>
+  </si>
+  <si>
+    <t>FMA-103</t>
+  </si>
+  <si>
+    <t>FMA-104</t>
+  </si>
+  <si>
+    <t>FMA-105</t>
+  </si>
+  <si>
+    <t>FMA-106</t>
+  </si>
+  <si>
+    <t>FMA-107</t>
+  </si>
+  <si>
+    <t>FMA-108</t>
+  </si>
+  <si>
+    <t>FMA-109</t>
+  </si>
+  <si>
+    <t>FMA-110</t>
+  </si>
+  <si>
+    <t>FMA-111</t>
+  </si>
+  <si>
+    <t>FMA-112</t>
+  </si>
+  <si>
+    <t>FMA-113</t>
+  </si>
+  <si>
+    <t>FMA-114</t>
+  </si>
+  <si>
+    <t>FMA-115</t>
+  </si>
+  <si>
+    <t>FMA-116</t>
+  </si>
+  <si>
+    <t>FMA-117</t>
+  </si>
+  <si>
+    <t>FMA-118</t>
+  </si>
+  <si>
+    <t>FMA-119</t>
+  </si>
+  <si>
+    <t>FMA-120</t>
+  </si>
+  <si>
+    <t>FMA-121</t>
+  </si>
+  <si>
+    <t>FMA-122</t>
+  </si>
+  <si>
+    <t>FMA-123</t>
+  </si>
+  <si>
+    <t>FMA-124</t>
+  </si>
+  <si>
+    <t>Adding posts GUI Suite</t>
+  </si>
+  <si>
+    <t>Adding posts Functions Suite</t>
   </si>
 </sst>
 </file>
@@ -892,7 +2361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,8 +2398,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1003,25 +2478,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1074,20 +2536,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1098,8 +2576,33 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1816,7 +3319,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C1048551" sqref="C1048551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2300,454 +3803,4692 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7BD7E2-6FBE-454C-A93E-C3CD561DEE39}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="61.5546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="19"/>
+    <col min="11" max="11" width="36.5546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="21" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" ht="158.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J87" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J88" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K89" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K90" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="28" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J97" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J98" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J99" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J100" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J101" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J102" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J103" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K103" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J104" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K104" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J105" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K105" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J106" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J108" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K108" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J109" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K109" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J110" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K110" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J111" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K111" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I112" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J112" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K112" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J113" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K113" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J114" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K114" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J115" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K115" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J116" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K116" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J117" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K117" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J118" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K118" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J119" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K119" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J120" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K120" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J121" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K121" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="22"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C123" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A91:XFD91"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3687F5AB-AE89-403A-8C8A-0966CFB97A23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEEDA25-5BF6-4D84-A2E7-DF6C2627D536}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19AC38-A824-430A-88F3-CE47EC3DDF80}">
+  <dimension ref="A1:K121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21"/>
-    <col min="2" max="2" width="35.21875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="61.5546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="36.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="32" style="38" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>220</v>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="36" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="36" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="40"/>
+      <c r="C11" s="36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="36" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" s="36" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="40"/>
+      <c r="C14" s="36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="40"/>
+      <c r="C15" s="36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="40"/>
+      <c r="C16" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="40"/>
+      <c r="C17" s="36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="40"/>
+      <c r="C18" s="36" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="40"/>
+      <c r="C19" s="36" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="40"/>
+      <c r="C20" s="36" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="40"/>
+      <c r="C21" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="40"/>
+      <c r="C22" s="36" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="40"/>
+      <c r="C23" s="36" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="40"/>
+      <c r="C24" s="36" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="36" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
+      <c r="C26" s="36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="40"/>
+      <c r="C27" s="36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="40"/>
+      <c r="C28" s="36" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="40"/>
+      <c r="C29" s="36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="40"/>
+      <c r="C30" s="36" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="C32" s="36" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="40"/>
+      <c r="C33" s="36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="40"/>
+      <c r="C34" s="36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="40"/>
+      <c r="C35" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="C36" s="36" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="C38" s="36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="40"/>
+      <c r="C39" s="36" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="36" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="40"/>
+      <c r="C41" s="36" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="40"/>
+      <c r="C42" s="36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="40"/>
+      <c r="C43" s="36" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="40"/>
+      <c r="C44" s="36" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="40"/>
+      <c r="C46" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="40"/>
+      <c r="C47" s="36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="40"/>
+      <c r="C48" s="36" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="40"/>
+      <c r="C49" s="36" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="40"/>
+      <c r="C50" s="36" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="40"/>
+      <c r="C51" s="36" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="40"/>
+      <c r="C52" s="36" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="40"/>
+      <c r="C53" s="36" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="40"/>
+      <c r="C54" s="36" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="40"/>
+      <c r="C55" s="36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="40"/>
+      <c r="C56" s="36" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="40"/>
+      <c r="C57" s="36" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="40"/>
+      <c r="C58" s="36" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="40"/>
+      <c r="C59" s="36" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="40"/>
+      <c r="C60" s="36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="40"/>
+      <c r="C61" s="36" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="40"/>
+      <c r="C62" s="36" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="40"/>
+      <c r="C63" s="36" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="40"/>
+      <c r="C64" s="36" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="40"/>
+      <c r="C65" s="36" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="40"/>
+      <c r="C66" s="36" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="40"/>
+      <c r="C67" s="36" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="40"/>
+      <c r="C68" s="36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="40"/>
+      <c r="C69" s="36" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="40"/>
+      <c r="C70" s="36" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="40"/>
+      <c r="C71" s="36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="40"/>
+      <c r="C72" s="36" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="40"/>
+      <c r="C73" s="36" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="40"/>
+      <c r="C74" s="36" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="40"/>
+      <c r="C75" s="36" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="40"/>
+      <c r="C76" s="36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="40"/>
+      <c r="C77" s="36" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="40"/>
+      <c r="C78" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="40"/>
+      <c r="C79" s="36" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="40"/>
+      <c r="C80" s="36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="40"/>
+      <c r="C81" s="36" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="40"/>
+      <c r="C82" s="36" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="40"/>
+      <c r="C83" s="36" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="40"/>
+      <c r="C84" s="36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="40"/>
+      <c r="C85" s="36" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="40"/>
+      <c r="C86" s="36" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="40"/>
+      <c r="C87" s="36" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="40"/>
+      <c r="C88" s="36" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="40"/>
+      <c r="C89" s="36" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="40"/>
+      <c r="C90" s="36" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="40"/>
+      <c r="C91" s="36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="C92" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="40"/>
+      <c r="C93" s="36" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="40"/>
+      <c r="C94" s="36" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="40"/>
+      <c r="C95" s="36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="40"/>
+      <c r="C96" s="36" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="40"/>
+      <c r="C97" s="36" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="40"/>
+      <c r="C98" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="40"/>
+      <c r="C99" s="36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="40"/>
+      <c r="C100" s="36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="40"/>
+      <c r="C101" s="36" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="40"/>
+      <c r="C102" s="36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="40"/>
+      <c r="C103" s="36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="40"/>
+      <c r="C104" s="36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="40"/>
+      <c r="C105" s="36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="40"/>
+      <c r="C106" s="36" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="40"/>
+      <c r="C107" s="36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="40"/>
+      <c r="C108" s="36" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="40"/>
+      <c r="C109" s="36" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="40"/>
+      <c r="C110" s="36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="40"/>
+      <c r="C111" s="36" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="40"/>
+      <c r="C112" s="36" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="40"/>
+      <c r="C113" s="36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="40"/>
+      <c r="C114" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="40"/>
+      <c r="C115" s="36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="40"/>
+      <c r="C116" s="36" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="40"/>
+      <c r="C117" s="36" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="40"/>
+      <c r="C118" s="36" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="40"/>
+      <c r="C119" s="36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="40"/>
+      <c r="C120" s="36" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="40"/>
+      <c r="C121" s="36" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B91"/>
+    <mergeCell ref="B92:B121"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/High Level Scenarios FB.xlsx
+++ b/High Level Scenarios FB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aya\Egy FWD\Mobile app testing\MobileApplicationTesting-Facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A8006-3CA1-4588-9F64-E80DE213C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9208CC-8706-4537-B9B7-513D180E750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" activeTab="2" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" activeTab="3" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Analysis" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="812">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -595,9 +595,6 @@
     <t>Facebook-GUI-4</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-1</t>
-  </si>
-  <si>
     <t>Validate functionality of "photo/video" button</t>
   </si>
   <si>
@@ -731,33 +728,6 @@
   </si>
   <si>
     <t>1. post is added</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-2</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-3</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-4</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-5</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-6</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-7</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-8</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-9</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-10</t>
   </si>
   <si>
     <t>Validate adding a post with only one photo</t>
@@ -961,48 +931,6 @@
     <t>1. post is shared with "public" privacy</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-11</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-12</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-13</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-14</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-15</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-16</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-17</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-18</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-19</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-20</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-21</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-22</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-23</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-24</t>
-  </si>
-  <si>
     <t>Validate adding a post with privacy "Friends"</t>
   </si>
   <si>
@@ -1064,18 +992,6 @@
     <t>1. post is shared with the selected location</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-25</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-26</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-27</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-28</t>
-  </si>
-  <si>
     <t>Validate searching for a GIF in GIF list</t>
   </si>
   <si>
@@ -1141,21 +1057,6 @@
     <t>1. all locations with the related search keyword are retrieved</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-29</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-30</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-31</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-32</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-33</t>
-  </si>
-  <si>
     <t>1. user should be logged in
 2. user should be on profile page</t>
   </si>
@@ -1265,15 +1166,6 @@
     <t>1. a post is successfully posted on the friend's profile</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-34</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-35</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-36</t>
-  </si>
-  <si>
     <t>Adding posts | Home page - Negative test cases</t>
   </si>
   <si>
@@ -1425,63 +1317,6 @@
 2. user should be on user's profile page</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-37</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-38</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-39</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-40</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-41</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-42</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-43</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-44</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-45</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-46</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-47</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-48</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-49</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-50</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-51</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-52</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-53</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-54</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-55</t>
-  </si>
-  <si>
     <t>Validate adding a post with text only (no media) from friend's wall</t>
   </si>
   <si>
@@ -1528,179 +1363,8 @@
     <t>Validate saving a post as a draft from friend's wall</t>
   </si>
   <si>
-    <t>Facebook-Home-Positive-56</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-57</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-58</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-59</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-60</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-61</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-62</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-63</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-64</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-65</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-66</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-67</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-68</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-69</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-70</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-71</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-72</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-73</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-74</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-75</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-76</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-77</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-78</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-79</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-80</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-81</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Positive-82</t>
-  </si>
-  <si>
     <t>1. user should be logged in
 2. user should be on group</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-01</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-02</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-03</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-04</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-05</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-06</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-07</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-08</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-09</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-10</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-11</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-12</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-13</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-14</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-15</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-16</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-17</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-18</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-19</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-20</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-21</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-22</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-23</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-24</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-25</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-26</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-27</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-28</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-29</t>
-  </si>
-  <si>
-    <t>Facebook-Home-Negative-30</t>
   </si>
   <si>
     <t>Validate adding a post with text only (no media) to a group</t>
@@ -2241,13 +1905,780 @@
   </si>
   <si>
     <t>Adding posts Functions Suite</t>
+  </si>
+  <si>
+    <t>Adding stories GUI Suite</t>
+  </si>
+  <si>
+    <t>4.1.2 FR 2: Adding stories</t>
+  </si>
+  <si>
+    <t>Adding stories Functions Suite</t>
+  </si>
+  <si>
+    <t>Validate adding a story with a text only</t>
+  </si>
+  <si>
+    <t>validate adding a story with a single photo uploaded from the gallery</t>
+  </si>
+  <si>
+    <t>Validate adding a story with multiple photos from the gallery</t>
+  </si>
+  <si>
+    <t>validate adding a story with a single video uploaded from the gallery</t>
+  </si>
+  <si>
+    <t>Validate adding a story with multiple video from the gallery</t>
+  </si>
+  <si>
+    <t>validate tagging a friend in a story using @Tag option</t>
+  </si>
+  <si>
+    <t>validate tagging a public account in a story using @Tag option</t>
+  </si>
+  <si>
+    <t>Validate sharing a story with public privacy</t>
+  </si>
+  <si>
+    <t>Validate sharing a story with "Friends" privacy</t>
+  </si>
+  <si>
+    <t>Validate sharing a story with "Specific Friends" privacy</t>
+  </si>
+  <si>
+    <t>Validate sharing a story with "Only me" privacy</t>
+  </si>
+  <si>
+    <t>Validate replying on a story via text</t>
+  </si>
+  <si>
+    <t>Validate replying on a story via GIFs</t>
+  </si>
+  <si>
+    <t>Validate replying on a story via reactions</t>
+  </si>
+  <si>
+    <t>validate automatic sharing of stories to Instagram</t>
+  </si>
+  <si>
+    <t>Validate archiving a story</t>
+  </si>
+  <si>
+    <t>Validate adding a music to a story</t>
+  </si>
+  <si>
+    <t>Validate adding location on a story.</t>
+  </si>
+  <si>
+    <t>Validate muting sounds on a story.</t>
+  </si>
+  <si>
+    <t>Validate adding GIFs on a story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validate adding a boomerang to a story.</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-1</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-2</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-3</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-4</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-5</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-6</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-7</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-8</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-9</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-10</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-11</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-12</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-13</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-14</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-15</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-16</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-17</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-18</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-19</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-20</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-21</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-22</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-23</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-24</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-25</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-26</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-27</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-28</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-29</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-30</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-31</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-32</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-33</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-34</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-35</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-36</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-37</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-38</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-39</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-40</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-41</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-42</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-43</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-44</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-45</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-46</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-47</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-48</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-49</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-50</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-51</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-52</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-53</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-54</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-55</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-56</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-57</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-58</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-59</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-60</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-61</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-62</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-63</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-64</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-65</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-66</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-67</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-68</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-69</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-70</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-71</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-72</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-73</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-74</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-75</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-76</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-77</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-78</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-79</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-80</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-81</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Positive-82</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-01</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-02</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-03</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-04</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-05</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-06</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-07</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-08</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-09</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-10</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-11</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-12</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-13</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-14</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-15</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-16</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-17</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-18</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-19</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-20</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-21</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-22</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-23</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-24</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-25</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-26</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-27</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-28</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-29</t>
+  </si>
+  <si>
+    <t>Facebook-AddPost-Negative-30</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-1</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-2</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-3</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-4</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-5</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-6</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-7</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-8</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-9</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-10</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-11</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-12</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-13</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-14</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-15</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-16</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-17</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-18</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-19</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-20</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-21</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-22</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-23</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-24</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-25</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-26</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-27</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-28</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-29</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-30</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. select one photo from the gallery
+3. add story</t>
+  </si>
+  <si>
+    <t>1. a story is added</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. click on camera icon
+3. capture a photo
+4. add story</t>
+  </si>
+  <si>
+    <t>1. a story should be added</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. click on camera icon
+3. capture multiple photos
+4. add them to story</t>
+  </si>
+  <si>
+    <t>Validate adding a story with multiple photos from the camera (camera icon)</t>
+  </si>
+  <si>
+    <t>Validate adding a story with multiple video from the camera (camera icon)</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. upload a video from the gallery
+3.  add story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. select multiple videos from the gallery
+3. add them to story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. click on camera icon
+3. record single videos
+4. add them to story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. click on camera icon
+3. record multiple videos
+3. add them to story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with tagging a public account
+3. post the story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with tagging a friend's account
+3. post the story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with "public" privacy
+3. post the story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with "friends" privacy
+3. post the story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with "only me" privacy
+3. post the story</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. leave commenting enabled on the story</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. try to reply on it via text</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. try to reply on it via GIFs</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. try to reply on it via reactions</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. add a music to it</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. add a location to it</t>
+  </si>
+  <si>
+    <t>1. share a post as a story</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. add music to it
+3. mute sound</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. add GIF to it</t>
+  </si>
+  <si>
+    <t>1. a story should be added with multiple videos</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. only friends can see this story</t>
+  </si>
+  <si>
+    <t>1. a story should be added with all tags</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. specific friends can see this story</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. no one can see this story</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. anyone can see this story</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. no one can comment on the story</t>
+  </si>
+  <si>
+    <t>1. a story can be replied on via text</t>
+  </si>
+  <si>
+    <t>1. a story is replied on via text</t>
+  </si>
+  <si>
+    <t>1. a story can be replied on via GIF</t>
+  </si>
+  <si>
+    <t>1. a story can be replied on via stickers</t>
+  </si>
+  <si>
+    <t>1. a story is replied on via GIF</t>
+  </si>
+  <si>
+    <t>1. a story is replied on via stickers</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a music to it</t>
+  </si>
+  <si>
+    <t>1. a story should be archived</t>
+  </si>
+  <si>
+    <t>1. a story is archived</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a location</t>
+  </si>
+  <si>
+    <t>1. a post should be added as a story</t>
+  </si>
+  <si>
+    <t>1. a post is added as a story</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a muted sound</t>
+  </si>
+  <si>
+    <t>1. a story is added with a muted sound</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a GIF</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a green screen</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a boomerang</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with text only</t>
+  </si>
+  <si>
+    <t>validate adding a story with a single photo uploaded from the Camera (camera icon)</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. select multiple photos from the gallery
+3. add story</t>
+  </si>
+  <si>
+    <t>1. a story should be added with a single video</t>
+  </si>
+  <si>
+    <t>validate adding a story with a single video uploaded from the Camera (camera icon)</t>
+  </si>
+  <si>
+    <t>Validate tagging multiple accounts in a story using @Tag option</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with tagging multiple account
+3. post the story</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. everyone on Facebook can see this story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story with "specific friends" privacy
+3. post the story</t>
+  </si>
+  <si>
+    <t>Validate enabling commenting on a story</t>
+  </si>
+  <si>
+    <t>Validate disabling commenting on a story</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. disable commenting on the story</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. click on the three dots in the upper right corner
+3. select "more comment settings"
+4. enable flag "Always Share to Instagram"</t>
+  </si>
+  <si>
+    <t>1. a story should be added
+2. story should be added to Instagram</t>
+  </si>
+  <si>
+    <t>1. a story is added
+2. story is added to Instagram</t>
+  </si>
+  <si>
+    <t>1. add a story
+2. click on the three dots in the upper right corner
+3. select "Archive story"</t>
+  </si>
+  <si>
+    <t>Validate sharing a post from Facebook timeline as a story.</t>
+  </si>
+  <si>
+    <t>1. click on add story
+2. click on boomerang option
+3. add story</t>
+  </si>
+  <si>
+    <t>1. click on add story
+2. click on green screen option
+3. add story</t>
+  </si>
+  <si>
+    <t>Adding Stories | Positive test cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2356,6 +2787,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2483,7 +2921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2555,17 +2993,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2579,6 +3015,18 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2588,21 +3036,26 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3805,10 +4258,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7BD7E2-6FBE-454C-A93E-C3CD561DEE39}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3868,7 +4321,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>687</v>
+        <v>575</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -3882,7 +4335,7 @@
       <c r="K2" s="30"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" ht="158.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="158.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>156</v>
       </c>
@@ -3914,7 +4367,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>156</v>
       </c>
@@ -3946,7 +4399,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>156</v>
       </c>
@@ -3960,7 +4413,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>158</v>
@@ -3978,7 +4431,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -4010,9 +4463,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>688</v>
+        <v>576</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -4026,366 +4479,366 @@
       <c r="K7" s="30"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:12" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>199</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="I16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>153</v>
@@ -4397,27 +4850,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>279</v>
+        <v>612</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>153</v>
@@ -4429,27 +4882,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>280</v>
+        <v>613</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>153</v>
@@ -4461,27 +4914,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>281</v>
+        <v>614</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>153</v>
@@ -4493,27 +4946,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>282</v>
+        <v>615</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>153</v>
@@ -4525,27 +4978,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>283</v>
+        <v>616</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>153</v>
@@ -4557,27 +5010,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>284</v>
+        <v>617</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>153</v>
@@ -4589,27 +5042,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>285</v>
+        <v>618</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>153</v>
@@ -4621,27 +5074,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>286</v>
+        <v>619</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>153</v>
@@ -4653,27 +5106,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>287</v>
+        <v>620</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>153</v>
@@ -4685,27 +5138,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>288</v>
+        <v>621</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>153</v>
@@ -4717,27 +5170,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>289</v>
+        <v>622</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>153</v>
@@ -4749,27 +5202,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>290</v>
+        <v>623</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>153</v>
@@ -4781,27 +5234,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>291</v>
+        <v>624</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>153</v>
@@ -4813,27 +5266,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>308</v>
+        <v>625</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>153</v>
@@ -4845,27 +5298,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>309</v>
+        <v>626</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>153</v>
@@ -4877,27 +5330,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>310</v>
+        <v>627</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>153</v>
@@ -4909,27 +5362,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>311</v>
+        <v>628</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>153</v>
@@ -4941,30 +5394,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>331</v>
+        <v>629</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>153</v>
@@ -4976,30 +5429,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>332</v>
+        <v>630</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>153</v>
@@ -5011,30 +5464,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>333</v>
+        <v>631</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>153</v>
@@ -5046,30 +5499,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>334</v>
+        <v>632</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="F40" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>361</v>
-      </c>
       <c r="H40" s="19" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>153</v>
@@ -5081,27 +5534,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>335</v>
+        <v>633</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>153</v>
@@ -5113,1644 +5566,1644 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="D46" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J87" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J88" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K89" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K90" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="35"/>
+    </row>
+    <row r="92" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="B92" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E93" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J55" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C60" s="19" t="s">
+      <c r="G93" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C61" s="19" t="s">
+      <c r="H93" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J64" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K65" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="I74" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J74" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="I75" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K85" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="I86" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K87" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="28" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="27"/>
-    </row>
-    <row r="92" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="H92" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>531</v>
-      </c>
       <c r="I93" s="19" t="s">
         <v>153</v>
       </c>
@@ -6761,30 +7214,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>485</v>
+        <v>685</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="D94" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>533</v>
+        <v>421</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>534</v>
+        <v>422</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>535</v>
+        <v>423</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>536</v>
+        <v>424</v>
       </c>
       <c r="I94" s="19" t="s">
         <v>153</v>
@@ -6796,27 +7249,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>486</v>
+        <v>686</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>527</v>
+        <v>415</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>537</v>
+        <v>425</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>538</v>
+        <v>426</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>539</v>
+        <v>427</v>
       </c>
       <c r="I95" s="19" t="s">
         <v>153</v>
@@ -6828,27 +7281,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>487</v>
+        <v>687</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>540</v>
+        <v>428</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>541</v>
+        <v>429</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>542</v>
+        <v>430</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>543</v>
+        <v>431</v>
       </c>
       <c r="I96" s="19" t="s">
         <v>153</v>
@@ -6860,27 +7313,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>488</v>
+        <v>688</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>544</v>
+        <v>432</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I97" s="19" t="s">
         <v>153</v>
@@ -6892,27 +7345,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>489</v>
+        <v>689</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>555</v>
+        <v>443</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I98" s="19" t="s">
         <v>153</v>
@@ -6924,27 +7377,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>378</v>
+        <v>690</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>342</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>557</v>
+        <v>445</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>558</v>
+        <v>446</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>153</v>
@@ -6956,27 +7409,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>379</v>
+        <v>691</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>546</v>
+        <v>434</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>153</v>
@@ -6988,27 +7441,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>380</v>
+        <v>692</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>547</v>
+        <v>435</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I101" s="19" t="s">
         <v>153</v>
@@ -7020,27 +7473,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>381</v>
+        <v>693</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>345</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>559</v>
+        <v>447</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I102" s="19" t="s">
         <v>153</v>
@@ -7052,27 +7505,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>382</v>
+        <v>694</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>560</v>
+        <v>448</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>153</v>
@@ -7084,27 +7537,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>391</v>
+        <v>695</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>561</v>
+        <v>449</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>153</v>
@@ -7116,27 +7569,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>392</v>
+        <v>696</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>356</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>562</v>
+        <v>450</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>153</v>
@@ -7148,27 +7601,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>393</v>
+        <v>697</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>357</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>153</v>
@@ -7180,27 +7633,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>394</v>
+        <v>698</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>153</v>
@@ -7212,27 +7665,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>395</v>
+        <v>699</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="I108" s="19" t="s">
         <v>153</v>
@@ -7244,27 +7697,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>383</v>
+        <v>700</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>347</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>544</v>
+        <v>432</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>153</v>
@@ -7276,27 +7729,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>384</v>
+        <v>701</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>348</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>545</v>
+        <v>433</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I110" s="19" t="s">
         <v>153</v>
@@ -7308,27 +7761,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>385</v>
+        <v>702</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>546</v>
+        <v>434</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I111" s="19" t="s">
         <v>153</v>
@@ -7340,27 +7793,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>386</v>
+        <v>703</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>547</v>
+        <v>435</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I112" s="19" t="s">
         <v>153</v>
@@ -7372,27 +7825,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>387</v>
+        <v>704</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I113" s="19" t="s">
         <v>153</v>
@@ -7404,27 +7857,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>388</v>
+        <v>705</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>549</v>
+        <v>437</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I114" s="19" t="s">
         <v>153</v>
@@ -7436,27 +7889,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>389</v>
+        <v>706</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>353</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>550</v>
+        <v>438</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I115" s="19" t="s">
         <v>153</v>
@@ -7468,27 +7921,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>390</v>
+        <v>707</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>551</v>
+        <v>439</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I116" s="19" t="s">
         <v>153</v>
@@ -7500,27 +7953,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="C117" s="41" t="s">
-        <v>396</v>
+        <v>708</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>360</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>561</v>
+        <v>449</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I117" s="19" t="s">
         <v>153</v>
@@ -7532,27 +7985,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>397</v>
+        <v>709</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>361</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>562</v>
+        <v>450</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I118" s="19" t="s">
         <v>153</v>
@@ -7564,27 +8017,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>398</v>
+        <v>710</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I119" s="19" t="s">
         <v>153</v>
@@ -7596,27 +8049,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>399</v>
+        <v>711</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>363</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I120" s="19" t="s">
         <v>153</v>
@@ -7628,27 +8081,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>400</v>
+        <v>712</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="I121" s="19" t="s">
         <v>153</v>
@@ -7660,7 +8113,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:11" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C122" s="22"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -7681,12 +8134,935 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3687F5AB-AE89-403A-8C8A-0966CFB97A23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="39.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="158.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" s="36" customFormat="1" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>794</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>748</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>795</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>796</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>795</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>720</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>768</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>768</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>797</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>798</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>770</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>799</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>769</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>800</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>771</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>772</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>773</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>774</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>775</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>732</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>782</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>781</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>784</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>808</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>785</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>787</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>789</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>790</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>791</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A8:XFD8"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7705,50 +9081,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19AC38-A824-430A-88F3-CE47EC3DDF80}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" style="38" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="32" style="27" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="27" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>338</v>
+      <c r="A2" s="26" t="s">
+        <v>305</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>340</v>
+      <c r="A3" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="B3" s="24">
         <v>1</v>
@@ -7758,730 +9134,817 @@
       <c r="E3" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>342</v>
+      <c r="A5" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>309</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="40"/>
+      <c r="C9" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="41"/>
+      <c r="C15" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="41"/>
+      <c r="C16" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="41"/>
+      <c r="C17" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="41"/>
+      <c r="C18" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="41"/>
+      <c r="C19" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="41"/>
+      <c r="C20" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="41"/>
+      <c r="C21" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="41"/>
+      <c r="C22" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="41"/>
+      <c r="C23" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="41"/>
+      <c r="C24" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="41"/>
+      <c r="C25" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="41"/>
+      <c r="C26" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="41"/>
+      <c r="C27" s="25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="41"/>
+      <c r="C28" s="25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="41"/>
+      <c r="C29" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="41"/>
+      <c r="C30" s="25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="41"/>
+      <c r="C31" s="25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="41"/>
+      <c r="C32" s="25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="41"/>
+      <c r="C33" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="41"/>
+      <c r="C34" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="41"/>
+      <c r="C35" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="41"/>
+      <c r="C36" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="41"/>
+      <c r="C37" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="41"/>
+      <c r="C38" s="25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="41"/>
+      <c r="C39" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="41"/>
+      <c r="C40" s="25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="41"/>
+      <c r="C41" s="25" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="41"/>
+      <c r="C42" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="41"/>
+      <c r="C43" s="25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="41"/>
+      <c r="C44" s="25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="41"/>
+      <c r="C45" s="25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="41"/>
+      <c r="C46" s="25" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="41"/>
+      <c r="C47" s="25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="41"/>
+      <c r="C48" s="25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="41"/>
+      <c r="C49" s="25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="41"/>
+      <c r="C50" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="41"/>
+      <c r="C51" s="25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="41"/>
+      <c r="C52" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="41"/>
+      <c r="C53" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="41"/>
+      <c r="C54" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="41"/>
+      <c r="C55" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="41"/>
+      <c r="C56" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="41"/>
+      <c r="C57" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="41"/>
+      <c r="C58" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="41"/>
+      <c r="C59" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="41"/>
+      <c r="C60" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="41"/>
+      <c r="C61" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="41"/>
+      <c r="C62" s="25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="41"/>
+      <c r="C63" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="41"/>
+      <c r="C64" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="41"/>
+      <c r="C65" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="41"/>
+      <c r="C66" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="41"/>
+      <c r="C67" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="41"/>
+      <c r="C68" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="41"/>
+      <c r="C69" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="41"/>
+      <c r="C70" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="41"/>
+      <c r="C71" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="41"/>
+      <c r="C72" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="41"/>
+      <c r="C73" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="41"/>
+      <c r="C74" s="25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="41"/>
+      <c r="C75" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="41"/>
+      <c r="C76" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="41"/>
+      <c r="C77" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="41"/>
+      <c r="C78" s="25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="41"/>
+      <c r="C79" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="41"/>
+      <c r="C80" s="25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="41"/>
+      <c r="C81" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="41"/>
+      <c r="C82" s="25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="41"/>
+      <c r="C83" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="41"/>
+      <c r="C84" s="25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="41"/>
+      <c r="C85" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="41"/>
+      <c r="C86" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="41"/>
+      <c r="C87" s="25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="41"/>
+      <c r="C88" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="41"/>
+      <c r="C89" s="25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="41"/>
+      <c r="C90" s="25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="41"/>
+      <c r="C91" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="41"/>
+      <c r="C93" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="41"/>
+      <c r="C94" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="41"/>
+      <c r="C95" s="25" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="41"/>
+      <c r="C96" s="25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="41"/>
+      <c r="C97" s="25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="41"/>
+      <c r="C98" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="41"/>
+      <c r="C99" s="25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="41"/>
+      <c r="C100" s="25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="41"/>
+      <c r="C101" s="25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="41"/>
+      <c r="C102" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="41"/>
+      <c r="C103" s="25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="41"/>
+      <c r="C104" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="41"/>
+      <c r="C105" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="41"/>
+      <c r="C106" s="25" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="41"/>
+      <c r="C107" s="25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="41"/>
+      <c r="C108" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="41"/>
+      <c r="C109" s="25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="41"/>
+      <c r="C110" s="25" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="41"/>
+      <c r="C111" s="25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="41"/>
+      <c r="C112" s="25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="41"/>
+      <c r="C113" s="25" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="41"/>
+      <c r="C114" s="25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="41"/>
+      <c r="C115" s="25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="41"/>
+      <c r="C116" s="25" t="s">
         <v>569</v>
       </c>
-      <c r="C6" s="36" t="s">
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="41"/>
+      <c r="C117" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="36" t="s">
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="41"/>
+      <c r="C118" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="36" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="41"/>
+      <c r="C119" s="25" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="36" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="41"/>
+      <c r="C120" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="41"/>
+      <c r="C121" s="25" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="36" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="36" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="36" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="36" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="36" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="36" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="36" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="36" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="36" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="36" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="36" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="36" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="36" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="36" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="36" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="36" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="36" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="36" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-      <c r="C31" s="36" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="36" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="36" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="36" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="36" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="36" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="36" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="36" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="36" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="36" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="36" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="36" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="40"/>
-      <c r="C43" s="36" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="36" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="36" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="40"/>
-      <c r="C46" s="36" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="36" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="36" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="40"/>
-      <c r="C49" s="36" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="36" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="36" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="40"/>
-      <c r="C52" s="36" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="36" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="36" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="40"/>
-      <c r="C55" s="36" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="36" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="36" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="40"/>
-      <c r="C58" s="36" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="36" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="36" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="40"/>
-      <c r="C61" s="36" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="36" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="36" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="40"/>
-      <c r="C64" s="36" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="36" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="36" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="40"/>
-      <c r="C67" s="36" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="36" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="36" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="40"/>
-      <c r="C70" s="36" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="36" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="36" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="40"/>
-      <c r="C73" s="36" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="36" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="36" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="40"/>
-      <c r="C76" s="36" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="36" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="36" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="40"/>
-      <c r="C79" s="36" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="40"/>
-      <c r="C80" s="36" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="40"/>
-      <c r="C81" s="36" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="40"/>
-      <c r="C82" s="36" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="40"/>
-      <c r="C83" s="36" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="40"/>
-      <c r="C85" s="36" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="36" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="36" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="40"/>
-      <c r="C88" s="36" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="36" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="36" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="40"/>
-      <c r="C91" s="36" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="40" t="s">
-        <v>657</v>
-      </c>
-      <c r="C92" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="40"/>
-      <c r="C93" s="36" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="40"/>
-      <c r="C94" s="36" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="40"/>
-      <c r="C95" s="36" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="40"/>
-      <c r="C96" s="36" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="40"/>
-      <c r="C97" s="36" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="40"/>
-      <c r="C98" s="36" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="40"/>
-      <c r="C99" s="36" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="40"/>
-      <c r="C100" s="36" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="40"/>
-      <c r="C101" s="36" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="40"/>
-      <c r="C102" s="36" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="40"/>
-      <c r="C103" s="36" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="40"/>
-      <c r="C104" s="36" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="40"/>
-      <c r="C105" s="36" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="40"/>
-      <c r="C106" s="36" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="40"/>
-      <c r="C107" s="36" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="40"/>
-      <c r="C108" s="36" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="40"/>
-      <c r="C109" s="36" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" s="40"/>
-      <c r="C110" s="36" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="40"/>
-      <c r="C111" s="36" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="40"/>
-      <c r="C112" s="36" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="40"/>
-      <c r="C113" s="36" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="40"/>
-      <c r="C114" s="36" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="40"/>
-      <c r="C115" s="36" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="40"/>
-      <c r="C116" s="36" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="40"/>
-      <c r="C117" s="36" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="40"/>
-      <c r="C118" s="36" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="40"/>
-      <c r="C119" s="36" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B120" s="40"/>
-      <c r="C120" s="36" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B121" s="40"/>
-      <c r="C121" s="36" t="s">
-        <v>686</v>
-      </c>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="25"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="25"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="25"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="25"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="25"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="25"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="25"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="25"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="25"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="25"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="25"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="25"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="25"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="25"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="25"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="25"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="25"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="25"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="25"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="25"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="25"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="25"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="25"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="25"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="25"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="25"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="25"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="25"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/High Level Scenarios FB.xlsx
+++ b/High Level Scenarios FB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aya\Egy FWD\Mobile app testing\MobileApplicationTesting-Facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9208CC-8706-4537-B9B7-513D180E750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900D8DB6-72AD-433B-B93D-51ECDF9FD22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" activeTab="3" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1036">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -2672,6 +2672,804 @@
   </si>
   <si>
     <t>Adding Stories | Positive test cases</t>
+  </si>
+  <si>
+    <t>Adding Stories | Negative test cases</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-1</t>
+  </si>
+  <si>
+    <t>Validate adding a story with no internet connection</t>
+  </si>
+  <si>
+    <t>Validate uploading a photo to a story without internet connection</t>
+  </si>
+  <si>
+    <t>Check UI when trying to add a story with text that includes very long words</t>
+  </si>
+  <si>
+    <t>Validate saving a story to phone</t>
+  </si>
+  <si>
+    <t>Check if you can see the story viewers within 24 hours after adding the story</t>
+  </si>
+  <si>
+    <t>Check if you can see the story viewers after 24 hours after adding the story</t>
+  </si>
+  <si>
+    <t>Validate tagging a blocked friend in a story</t>
+  </si>
+  <si>
+    <t>Validate tagging a deactivated account in a story</t>
+  </si>
+  <si>
+    <t>Validate adding a story with only a link</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and uploaded photo from the gallery</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and stickers</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and GIFs</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-31</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-32</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-33</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-34</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-35</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-36</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-37</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-38</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-39</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-40</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-41</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-42</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-43</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-44</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-45</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-46</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-47</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-48</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-49</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-50</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-51</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-52</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-53</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-54</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-55</t>
+  </si>
+  <si>
+    <t>Validate adding a story with stickers and GIFs</t>
+  </si>
+  <si>
+    <t>Validate adding a story with photo and stickers</t>
+  </si>
+  <si>
+    <t>Validate adding a story with photo and GIFs</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and video</t>
+  </si>
+  <si>
+    <t>Validate adding a story with GIF and video</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and a location</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and sound</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and green screen</t>
+  </si>
+  <si>
+    <t>Validate adding a story with stickers and video</t>
+  </si>
+  <si>
+    <t>Validate adding a story with stickers and location</t>
+  </si>
+  <si>
+    <t>Validate adding a story with stickers and sound</t>
+  </si>
+  <si>
+    <t>Validate adding a story with stickers and green screen</t>
+  </si>
+  <si>
+    <t>Validate adding a story with GIF and location</t>
+  </si>
+  <si>
+    <t>Validate adding a story with GIF and sound</t>
+  </si>
+  <si>
+    <t>Validate adding a story with GIF and boomerang</t>
+  </si>
+  <si>
+    <t>Validate adding a story with GIF and green screen</t>
+  </si>
+  <si>
+    <t>Validate adding a story with location and video</t>
+  </si>
+  <si>
+    <t>Validate adding a story with video and sound</t>
+  </si>
+  <si>
+    <t>Validate adding a story with video and boomerang</t>
+  </si>
+  <si>
+    <t>Validate adding a story with video and green screen</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-56</t>
+  </si>
+  <si>
+    <t>Validate adding a story with location and sound</t>
+  </si>
+  <si>
+    <t>validate adding a story with location and boomerang</t>
+  </si>
+  <si>
+    <t>validate adding a story with location and green screen</t>
+  </si>
+  <si>
+    <t>validate adding a story with location and photo</t>
+  </si>
+  <si>
+    <t>validate adding a story with sound and boomerang</t>
+  </si>
+  <si>
+    <t>validate adding a story with sound and photo</t>
+  </si>
+  <si>
+    <t>validate adding a story with sound and green screen</t>
+  </si>
+  <si>
+    <t>Validate adding effects to a story</t>
+  </si>
+  <si>
+    <t>Validate drawing free lines on a story</t>
+  </si>
+  <si>
+    <t>validate adding a question on a story</t>
+  </si>
+  <si>
+    <t>validate adding an event on a story</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-57</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-58</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-59</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-60</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-61</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-62</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-63</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-64</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-65</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-66</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-67</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Positive-68</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with text only</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a video</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a GIF</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a sticker</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with multiple GIFs and stickers</t>
+  </si>
+  <si>
+    <t>Validate deleting a story with friends tagged in it</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a photo</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a boomerang</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a sound</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a location</t>
+  </si>
+  <si>
+    <t>Validate deleting an already existing story with a green screen</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-2</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-3</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-4</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-5</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-6</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-7</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-8</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-9</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-10</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-11</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-12</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-13</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-14</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-15</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-16</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-17</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-18</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-19</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-20</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-21</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-22</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-23</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-24</t>
+  </si>
+  <si>
+    <t>Facebook-AddStory-Negative-25</t>
+  </si>
+  <si>
+    <t>Validate deleting a story after sharing it with a friend as a link</t>
+  </si>
+  <si>
+    <t>Validate deleting a story from a collection</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. upload photo from gallery
+3. add text
+4. add story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. click on camera icon
+3. capture a photo
+4. add text
+5. add them to story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add video
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add a GIF
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add GIF
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a photo
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add location
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add video
+3. add GIF
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add location
+3. add video
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add boomerang
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add sound
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add video
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add text
+3. add green screen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add location
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add sound
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add boomerang
+3. add stickers
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add stickers
+3. add green screen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add GIF
+3. add green screen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add boomerang
+3. add green screen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add sound
+3. add green screen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add sound
+3. add GIF
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add GIF
+3. add location
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add video
+3. add sound
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add video
+3. add boomerang
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add video
+3. add greenscreen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add location
+3. add sound
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add location
+3. add boomerang
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add location
+3. add photo
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add location
+3. add green screen
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add sound
+3. add photo
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add sound
+3. add boomerang
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a poll
+3. add a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add effects
+3. add a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a question
+3. add a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add an event
+3. add a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. draw lines
+3. add a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a story without internet</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add photo to a story without internet</t>
+  </si>
+  <si>
+    <t>1. a story should not be added</t>
+  </si>
+  <si>
+    <t>1. a story is not added</t>
+  </si>
+  <si>
+    <t>Validate sending a story in messenger</t>
+  </si>
+  <si>
+    <t>Validate deleting a story after adding it</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and uploaded photo from the Camera</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add photo
+3. add GIF
+4. add them to a story</t>
+  </si>
+  <si>
+    <t>Validate adding a story with text and boomerang</t>
+  </si>
+  <si>
+    <t>Validate adding a story with stickers and boomerang</t>
+  </si>
+  <si>
+    <t>Validate adding a poll to a story</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. write Germany sentences with very long words
+3. check UI</t>
+  </si>
+  <si>
+    <t>1. text should be wrapped and should not go out of the story frame</t>
+  </si>
+  <si>
+    <t>1. text is not wrapped and does not go out of the story frame</t>
+  </si>
+  <si>
+    <t>1. user should have an already added story</t>
+  </si>
+  <si>
+    <t>1. open a story
+2. click on the 3 dots menu
+3. copy story link
+4. send it to a friend
+5. check that a story can be shared</t>
+  </si>
+  <si>
+    <t>1. a story can be shared as a message</t>
+  </si>
+  <si>
+    <t>1. a story is shared as a message</t>
+  </si>
+  <si>
+    <t>1. open a story
+2. click on the 3 dots menu
+3. click on save to phone
+4. check gallery</t>
+  </si>
+  <si>
+    <t>1. story should be saved to phone</t>
+  </si>
+  <si>
+    <t>1. story is saved to phone</t>
+  </si>
+  <si>
+    <t>1. delete a story</t>
+  </si>
+  <si>
+    <t>1. a story should be deleted</t>
+  </si>
+  <si>
+    <t>1. a story is deleted</t>
+  </si>
+  <si>
+    <t>1. a story should be added within 24 hours</t>
+  </si>
+  <si>
+    <t>1. check that others can see the story</t>
+  </si>
+  <si>
+    <t>1. a story should remain visible to others within 24 hours</t>
+  </si>
+  <si>
+    <t>1. a story is visible to others within 24 hours</t>
+  </si>
+  <si>
+    <t>1. a story should be added 2 days ago</t>
+  </si>
+  <si>
+    <t>1. check if a story is visible</t>
+  </si>
+  <si>
+    <t>1. a story should be already added</t>
+  </si>
+  <si>
+    <t>Check story visibility adding it to a collection</t>
+  </si>
+  <si>
+    <t>1. add a story to a collection
+2. check story visibility</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. try tagging an account you blocked</t>
+  </si>
+  <si>
+    <t>1. user should not be able to tag blocked accounts</t>
+  </si>
+  <si>
+    <t>1. user is not able to tag blocked accounts</t>
+  </si>
+  <si>
+    <t>1. user should not be able to tag deactivated accounts</t>
+  </si>
+  <si>
+    <t>1. user is not able to tag deactivated accounts</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. add a link to a story
+3. post a story</t>
+  </si>
+  <si>
+    <t>1. a story with text only should be added</t>
+  </si>
+  <si>
+    <t>1. a story with video only should be added</t>
+  </si>
+  <si>
+    <t>1. a story with GIF should be added</t>
+  </si>
+  <si>
+    <t>1. a story with stickers should be added</t>
+  </si>
+  <si>
+    <t>1. a story with photo should be added</t>
+  </si>
+  <si>
+    <t>1. a story with boomerang should be added</t>
+  </si>
+  <si>
+    <t>1. a story with sound should be added</t>
+  </si>
+  <si>
+    <t>1. a story with location should be added</t>
+  </si>
+  <si>
+    <t>1. a story with green screen should be added</t>
+  </si>
+  <si>
+    <t>1. a story with a friend tagged in it should be added</t>
+  </si>
+  <si>
+    <t>1. a story linked should be already shared with a friend</t>
+  </si>
+  <si>
+    <t>1. a story should be already added to a collection</t>
+  </si>
+  <si>
+    <t>1. delete a story with friends tagged in it</t>
+  </si>
+  <si>
+    <t>1. delete a story after sharing its link with a friend</t>
+  </si>
+  <si>
+    <t>1. a story with GIFs and stickers should be added</t>
+  </si>
+  <si>
+    <t>1. delete a story from a collection</t>
+  </si>
+  <si>
+    <t>1. a story should not be visible after adding it with 24 hours</t>
+  </si>
+  <si>
+    <t>1. a story is not visible after adding it with 24 hours</t>
+  </si>
+  <si>
+    <t>1. a story should remain visible forever</t>
+  </si>
+  <si>
+    <t>1. a story is visible forever</t>
+  </si>
+  <si>
+    <t>1. click on story icon
+2. try tagging an account that is already deactivated</t>
+  </si>
+  <si>
+    <t>1. a story should be deleted from friend's side too</t>
+  </si>
+  <si>
+    <t>1. a story is deleted from friend's side too</t>
+  </si>
+  <si>
+    <t>1. story link should not be opened</t>
+  </si>
+  <si>
+    <t>1. story link is not opened</t>
+  </si>
+  <si>
+    <t>1. a story should be deleted from a collection</t>
+  </si>
+  <si>
+    <t>1. a story is deleted from a collection</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -3042,19 +3840,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4259,9 +5057,9 @@
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD91"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -7150,7 +7948,7 @@
       <c r="K91" s="34"/>
       <c r="L91" s="35"/>
     </row>
-    <row r="92" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="99.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>336</v>
       </c>
@@ -7182,7 +7980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="109.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>336</v>
       </c>
@@ -8134,22 +8932,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3687F5AB-AE89-403A-8C8A-0966CFB97A23}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="44"/>
+    <col min="2" max="2" width="27.77734375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="44"/>
+    <col min="11" max="11" width="39.109375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -8191,20 +8996,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="158.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -8335,732 +9140,3009 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="32" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    </row>
+    <row r="8" spans="1:12" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>811</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="45" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>713</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="44" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="I9" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>714</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="I10" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>715</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="45" t="s">
+      <c r="I11" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>716</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="I12" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>717</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="I13" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="I14" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>719</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="45" t="s">
+      <c r="I15" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>720</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="45" t="s">
+      <c r="I16" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>721</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="45" t="s">
+      <c r="I17" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>722</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="I18" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>723</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="45" t="s">
+      <c r="I19" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>724</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="43" t="s">
         <v>770</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="45" t="s">
+      <c r="I20" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="43" t="s">
         <v>799</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="I21" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="43" t="s">
         <v>769</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="45" t="s">
+      <c r="I22" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>727</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="45" t="s">
+      <c r="I23" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>728</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="43" t="s">
         <v>772</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="I24" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>729</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="43" t="s">
         <v>773</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="45" t="s">
+      <c r="I25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>730</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="43" t="s">
         <v>774</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="45" t="s">
+      <c r="I26" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>731</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="43" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="45" t="s">
+      <c r="I27" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>732</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="43" t="s">
         <v>777</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="43" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="45" t="s">
+      <c r="I28" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>733</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="43" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="45" t="s">
+      <c r="I29" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>734</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="43" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="45" t="s">
+      <c r="I30" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>735</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="43" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="45" t="s">
+      <c r="I31" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>736</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="45" t="s">
+      <c r="I32" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>737</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="45" t="s">
         <v>597</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="43" t="s">
         <v>784</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="45" t="s">
+      <c r="I33" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>738</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="45" t="s">
         <v>808</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="43" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="45" t="s">
+      <c r="I34" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>739</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="43" t="s">
         <v>787</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="43" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="45" t="s">
+      <c r="I35" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>740</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="43" t="s">
         <v>789</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="45" t="s">
+      <c r="I36" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="43" t="s">
         <v>741</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="43" t="s">
         <v>790</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="43" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="45" t="s">
+      <c r="I37" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>742</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="45" t="s">
         <v>600</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="43" t="s">
         <v>744</v>
       </c>
+      <c r="I38" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>827</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>828</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>824</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>829</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>825</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>851</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>852</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>853</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>833</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>854</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>856</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>855</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>867</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>837</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J50" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>857</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>858</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J52" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>859</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>860</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="G54" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>842</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>861</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I55" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K56" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>862</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>949</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>845</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>863</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>864</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I59" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K59" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>865</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I60" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>866</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I61" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K61" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>868</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I62" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>870</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="G64" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I64" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>872</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I65" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>884</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>873</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I66" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>885</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J67" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K67" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>886</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>887</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>876</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I69" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>888</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>877</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I70" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K72" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>879</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I73" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K73" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>880</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I74" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>893</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>881</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>882</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="I76" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="36" customFormat="1" ht="22.2" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>813</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>971</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K78" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>906</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>971</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="I79" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J79" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K79" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>907</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="I80" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J80" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K80" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>973</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>985</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="I81" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J81" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K81" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>909</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>987</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>988</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="I82" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J82" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K82" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="42" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>974</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I83" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J83" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K83" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="67.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="I84" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J84" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K84" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I85" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J85" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K85" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I86" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J86" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K86" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="43.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I87" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J87" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K87" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="48.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I88" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J88" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K88" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="64.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>916</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="I89" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J89" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K89" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>917</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I90" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J90" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K90" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I91" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J91" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K91" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I92" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J92" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>898</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I93" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J93" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K93" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>921</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I94" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J94" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I95" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J95" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>923</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I96" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J96" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K96" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>924</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I97" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J97" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K97" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I98" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J98" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K98" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="I99" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J99" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K99" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="38.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>927</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I100" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J100" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K100" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="45.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>928</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I101" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J101" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K101" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>929</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I102" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J102" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="K102" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:XFD7"/>
     <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A77:XFD77"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/High Level Scenarios FB.xlsx
+++ b/High Level Scenarios FB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aya\Egy FWD\Mobile app testing\MobileApplicationTesting-Facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900D8DB6-72AD-433B-B93D-51ECDF9FD22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117FB95-D10A-4D6B-A617-86D5F277A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" activeTab="3" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" xr2:uid="{5A6BC087-F653-4ABA-AD0D-CDE97249D429}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Analysis" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="1294">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -3470,6 +3470,898 @@
   </si>
   <si>
     <t>medium</t>
+  </si>
+  <si>
+    <t>Messaging - Functions Suite</t>
+  </si>
+  <si>
+    <t>Messaging | Positive test cases</t>
+  </si>
+  <si>
+    <t>Check that a user can send a photo captured from the camera</t>
+  </si>
+  <si>
+    <t>Check that a user can send a photo uploaded from the gallery</t>
+  </si>
+  <si>
+    <t>Check that a user can send a video uploaded from the camera</t>
+  </si>
+  <si>
+    <t>Check that a user can send a video uploaded from the gallery</t>
+  </si>
+  <si>
+    <t>Validate that a user can send a message with location</t>
+  </si>
+  <si>
+    <t>Validate that a user can send a message with live location</t>
+  </si>
+  <si>
+    <t>Validate that a user can make an audio call</t>
+  </si>
+  <si>
+    <t>Validate that a user can make a video call</t>
+  </si>
+  <si>
+    <t>Validate that a user can send a message with GIFs</t>
+  </si>
+  <si>
+    <t>Check that a message can be emojis only</t>
+  </si>
+  <si>
+    <t>Check that a user can send stickers</t>
+  </si>
+  <si>
+    <t>Check that a user can share a document through a message</t>
+  </si>
+  <si>
+    <t>Validate that a user can forward a message that includes a document sent from another person</t>
+  </si>
+  <si>
+    <t>Validate that a user can mark a read message as unread</t>
+  </si>
+  <si>
+    <t>Validate that a user can save a received photo to the gallery</t>
+  </si>
+  <si>
+    <t>Validate that a user can save a received video to the gallery</t>
+  </si>
+  <si>
+    <t>Validate that a user can save a received document to the gallery</t>
+  </si>
+  <si>
+    <t>Validate that a user can edit a photo from the gallery before sending it</t>
+  </si>
+  <si>
+    <t>Validate that a user can edit a photo captured by the camera before sending it.</t>
+  </si>
+  <si>
+    <t>Validate that a user can edit a video uploaded from the gallery before sending it</t>
+  </si>
+  <si>
+    <t>Validate that a user can edit a video captured by the camera before sending it</t>
+  </si>
+  <si>
+    <t>Validate that a user can forward a message that includes a text sent from another person</t>
+  </si>
+  <si>
+    <t>Validate that a user can forward a message that includes a photo sent from another person</t>
+  </si>
+  <si>
+    <t>Validate that a user can forward a message that includes a video sent from another person</t>
+  </si>
+  <si>
+    <t>Validate that a user can forward a message that includes a link sent from another person</t>
+  </si>
+  <si>
+    <t>Validate that a user can archive a conversation</t>
+  </si>
+  <si>
+    <t>Validate that a user can mute a conversation for 1 hour</t>
+  </si>
+  <si>
+    <t>Validate that a user can mute a conversation forever</t>
+  </si>
+  <si>
+    <t>Validate that a user can report a conversation</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page</t>
+  </si>
+  <si>
+    <t>Validate the a can send a message with text only</t>
+  </si>
+  <si>
+    <t>1. type a text in message box
+2. click on send button</t>
+  </si>
+  <si>
+    <t>1. message with a text should be sent</t>
+  </si>
+  <si>
+    <t>1. a message with a photo should be sent</t>
+  </si>
+  <si>
+    <t>1. click on camera icon
+2. capture a photo
+3. click on send button</t>
+  </si>
+  <si>
+    <t>1. a message with a video should be sent</t>
+  </si>
+  <si>
+    <t>1. click on gallery icon
+2. select a photo
+3. click on send button</t>
+  </si>
+  <si>
+    <t>1. click on camera icon
+2. record a video
+3. click on send button</t>
+  </si>
+  <si>
+    <t>1. click on gallery icon
+2. select a video
+3. click on send button</t>
+  </si>
+  <si>
+    <t>1. a message with an uploaded video should be sent</t>
+  </si>
+  <si>
+    <t>1. a message with an uploaded photo should be sent</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. select location icon
+3. send a location</t>
+  </si>
+  <si>
+    <t>1. a message with the selected location should be sent</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. select location icon
+3. send a live location</t>
+  </si>
+  <si>
+    <t>1. a live location should be sent</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on phone icon</t>
+  </si>
+  <si>
+    <t>1. an audio call should be made with the receiver</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on video icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. a video call should be started </t>
+  </si>
+  <si>
+    <t>1. a message with a GIF should be sent</t>
+  </si>
+  <si>
+    <t>1. a message with only an emoji should be sent</t>
+  </si>
+  <si>
+    <t>check that a message can include emojis and text</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. type a text
+3. enter an emoji
+4. click on send button</t>
+  </si>
+  <si>
+    <t>1. a message with text an emoji should be sent</t>
+  </si>
+  <si>
+    <t>1. a message with a sticker should be sent</t>
+  </si>
+  <si>
+    <t>1. a voice note should be sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. user should be logged in
+2. user should be on messages page
+3. a user should have already received an SMS with a document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. user should be logged in
+2. user should be on messages page
+</t>
+  </si>
+  <si>
+    <t>1. click long press on a message you sent
+2. click on "Unsend" button</t>
+  </si>
+  <si>
+    <t>1. message should be unsent and deleted from both sender &amp; receiver
+2. error message "A message  has be deleted" should be displayed to both sender &amp; receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click long press on a message you sent
+2. click on "Unsend" button
+3. select unsend for me option
+</t>
+  </si>
+  <si>
+    <t>1. click long press on a message in the messages list
+2. select "Mark as unread" option</t>
+  </si>
+  <si>
+    <t>1. message should be unread</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on emojis icon
+3. go to GIFs tab
+4. select a GIF
+5. click on send button</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on emojis icon
+3. select an emoji
+5. click on send button</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on emojis icon
+3. go to stickers tab
+4. select a sticker
+5. click on send button</t>
+  </si>
+  <si>
+    <t>Validate that a user can send voice notes</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on mic icon
+3. record a voice note
+4. click on send button</t>
+  </si>
+  <si>
+    <t>1. open file manager
+2. select a file
+3. share it with a contact on messenger</t>
+  </si>
+  <si>
+    <t>1. a document should be shared via messenger</t>
+  </si>
+  <si>
+    <t>1. open a message that already includes a text
+2. click on share option
+3. select forward
+4. forward a text message to a contact on messenger</t>
+  </si>
+  <si>
+    <t>1. a text message should be forwarded to other person</t>
+  </si>
+  <si>
+    <t>1. open a message that already includes a photo
+2. click on share option
+3. select forward
+4. forward a photo message to a contact on messenger</t>
+  </si>
+  <si>
+    <t>1. a photo should be forwarded to another person</t>
+  </si>
+  <si>
+    <t>1. open a message that already includes a video
+2. click on share option
+3. select forward
+4. forward a video message to a contact on messenger</t>
+  </si>
+  <si>
+    <t>1. a video should be forwarded to another person</t>
+  </si>
+  <si>
+    <t>1. open a message that already includes a document
+2. click on share option
+3. select forward
+4. forward a document message to a contact on messenger</t>
+  </si>
+  <si>
+    <t>1. a document should be forwarded to another person</t>
+  </si>
+  <si>
+    <t>1. open a message that already includes a link
+2. click on share option
+3. select forward
+4. forward a link message to a contact on messenger</t>
+  </si>
+  <si>
+    <t>1. a link should be forwarded to another person</t>
+  </si>
+  <si>
+    <t>Validate that a user can unsend a message from his side only</t>
+  </si>
+  <si>
+    <t>1. message should be unsent and deleted from sender side only</t>
+  </si>
+  <si>
+    <t>Validate that a user can unsend a message from his side and the recipient side</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. a user should have already received an SMS with a photo</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. a user should have already received an SMS with a video</t>
+  </si>
+  <si>
+    <t>1. open the message with a photo
+2. download the photo
+3. check the gallery</t>
+  </si>
+  <si>
+    <t>1. open the message with a video
+2. download the video
+3. check the gallery</t>
+  </si>
+  <si>
+    <t>1. a photo should be saved in the gallery</t>
+  </si>
+  <si>
+    <t>1. a video should be saved in the gallery</t>
+  </si>
+  <si>
+    <t>1. open the message with a document
+2. click on the document 
+3. check file manager</t>
+  </si>
+  <si>
+    <t>1. document should be downloaded</t>
+  </si>
+  <si>
+    <t>1. the photo after editing should be sent</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on camera icon
+3. capture a photo
+4. edit the photo
+5. send it</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on camera icon
+3. capture a video
+4. edit the video
+5. send it</t>
+  </si>
+  <si>
+    <t>1. the video after editing should be sent</t>
+  </si>
+  <si>
+    <t>1. click long press on a message in the messages list
+2. select "archive" option</t>
+  </si>
+  <si>
+    <t>1. message should be archived in the archive list</t>
+  </si>
+  <si>
+    <t>1. click long press on a message in the messages list
+2. select mute conversation
+3. select 1 hour</t>
+  </si>
+  <si>
+    <t>1. messages from this user should be muted for 1 hour</t>
+  </si>
+  <si>
+    <t>1. messages from this user should be muted forever</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on the "!" mark in the message itself
+3. select report</t>
+  </si>
+  <si>
+    <t>1. a message should be reported</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-1</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-2</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-3</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-4</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-5</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-6</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-7</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-8</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-9</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-10</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-11</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-12</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-13</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-14</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-15</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-16</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-17</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-18</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-19</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-20</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-21</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-22</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-23</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-24</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-25</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-26</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-27</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-28</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-29</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-30</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-31</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-32</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-33</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Positive-34</t>
+  </si>
+  <si>
+    <t>Messaging | Negative test cases</t>
+  </si>
+  <si>
+    <t>Validate sending a message to a deactivated account</t>
+  </si>
+  <si>
+    <t>Validate sending a text message with internet not connected</t>
+  </si>
+  <si>
+    <t>Validate sending a photo with no internet connection</t>
+  </si>
+  <si>
+    <t>Validate sending a video with no internet connection</t>
+  </si>
+  <si>
+    <t>Validate opening a received photo with no internet connection</t>
+  </si>
+  <si>
+    <t>Validate opening a received video with no internet connection</t>
+  </si>
+  <si>
+    <t>Check the order of the displayed messages</t>
+  </si>
+  <si>
+    <t>Check messages in chat head, when a message is deleted from web view</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-1</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-2</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-3</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-4</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-5</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-6</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-7</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-8</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-9</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-10</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-11</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-12</t>
+  </si>
+  <si>
+    <t>Check if the user can send messages to offline users</t>
+  </si>
+  <si>
+    <t>Check UI of unread messages</t>
+  </si>
+  <si>
+    <t>Check UI when sending an email valid format in a message</t>
+  </si>
+  <si>
+    <t>Check UI when sending a link in a message</t>
+  </si>
+  <si>
+    <t>Validate sending a message with special characters in it</t>
+  </si>
+  <si>
+    <t>check UI when a user types a message</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-13</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-14</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-15</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-16</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-17</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-18</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-19</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-20</t>
+  </si>
+  <si>
+    <t>Check UI when an archived user send a message</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-21</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-22</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-23</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-24</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-25</t>
+  </si>
+  <si>
+    <t>Check UI removing custom chat color</t>
+  </si>
+  <si>
+    <t>Check UI removing custom chat theme</t>
+  </si>
+  <si>
+    <t>Check UI adding nicknames for users</t>
+  </si>
+  <si>
+    <t>Check UI changing default chat color</t>
+  </si>
+  <si>
+    <t>Check UI changing default theme</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-26</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-27</t>
+  </si>
+  <si>
+    <t>Facebook-Message-Negative-28</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. receiver user should be blocked</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. receiver user should be deactivated</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. internet connection should be off</t>
+  </si>
+  <si>
+    <t>1. try to send a message to a blocked user</t>
+  </si>
+  <si>
+    <t>1. try to send a message to a deactivated account</t>
+  </si>
+  <si>
+    <t>1. try with open a message with a photo with no internet connection</t>
+  </si>
+  <si>
+    <t>1. try with send a message with a photo with no internet connection</t>
+  </si>
+  <si>
+    <t>1. try with send a message with a video with no internet connection</t>
+  </si>
+  <si>
+    <t>1. try with open a message with a video with no internet connection</t>
+  </si>
+  <si>
+    <t>1. check the order of the displayed messages</t>
+  </si>
+  <si>
+    <t>1. send a message to an offline user</t>
+  </si>
+  <si>
+    <t>1. send a message to a user who does not have a messenger app</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. there should be already unread messages</t>
+  </si>
+  <si>
+    <t>1. check UI of an unread message</t>
+  </si>
+  <si>
+    <t>1. type an email with valid format in a message</t>
+  </si>
+  <si>
+    <t>1. send a link in a message
+2. check UI of the link</t>
+  </si>
+  <si>
+    <t>1. type a message
+2. check UI at the receiver side</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. there should be a message request with a photo in it</t>
+  </si>
+  <si>
+    <t>1. check message requests
+2. check UI of a photo</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. a chat should be already archived</t>
+  </si>
+  <si>
+    <t>1. send a message to a user who is already archived
+2. check UI at their side</t>
+  </si>
+  <si>
+    <t>1. add a custom chat color</t>
+  </si>
+  <si>
+    <t>1. remove all nicknames</t>
+  </si>
+  <si>
+    <t>1. remove all custom color</t>
+  </si>
+  <si>
+    <t>1. remove all custom themes</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. a user should have already received an SMS with a document</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on gallery icon
+3. select a photo
+4. edit the photo
+5. send it</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. click on gallery icon
+3. select a video
+4. edit the video
+5. send it</t>
+  </si>
+  <si>
+    <t>1. click long press on a message in the messages list
+2. select mute conversation
+3. select forever</t>
+  </si>
+  <si>
+    <t>Validate sending a message to a blocked user</t>
+  </si>
+  <si>
+    <t>Validate sending a message to a user who is not friend on Facebook</t>
+  </si>
+  <si>
+    <t>1. user should be logged in
+2. user should be on messages page
+3. receiver user should not be a friend on Facebook</t>
+  </si>
+  <si>
+    <t>1. try not send a message to a user who is not friend on Facebook</t>
+  </si>
+  <si>
+    <t>Validate message opened in chat head against message opened in messenger</t>
+  </si>
+  <si>
+    <t>1. validate message opened in chat head against message opened in messenger</t>
+  </si>
+  <si>
+    <t>1. open a message
+2. delete it from messenger
+3. open chat head
+4. check message in chat head</t>
+  </si>
+  <si>
+    <t>Check UI when opening a message in messenger and chat head is already opened</t>
+  </si>
+  <si>
+    <t>1. open a message from messenger app when chat head is already opened</t>
+  </si>
+  <si>
+    <t>Check if the user can send messages to user who do not have messenger app</t>
+  </si>
+  <si>
+    <t>Check if messages from stranger people are sent in requests</t>
+  </si>
+  <si>
+    <t>1. send a message to someone who is not a friend and has no mutual friends in common
+2. check message requests at their side</t>
+  </si>
+  <si>
+    <t>1. send special characters in a message</t>
+  </si>
+  <si>
+    <t>Check UI of a photo sent in a message request</t>
+  </si>
+  <si>
+    <t>1. add nicknames</t>
+  </si>
+  <si>
+    <t>Check UI removing nicknames for users</t>
+  </si>
+  <si>
+    <t>1. add a custom theme</t>
+  </si>
+  <si>
+    <t>1. a blocked user chat should be disabled</t>
+  </si>
+  <si>
+    <t>1. a deactivated user chat should be disabled</t>
+  </si>
+  <si>
+    <t>1. message should not be sent</t>
+  </si>
+  <si>
+    <t>1. photo cannot be opened</t>
+  </si>
+  <si>
+    <t>1. video cannot be opened</t>
+  </si>
+  <si>
+    <t>1. messages should be displayed descending by the latest date</t>
+  </si>
+  <si>
+    <t>chat head should be disappeared</t>
+  </si>
+  <si>
+    <t>1. message should be sent</t>
+  </si>
+  <si>
+    <t>1. message should be sent in message requests</t>
+  </si>
+  <si>
+    <t>1. a message become highlighted and unread</t>
+  </si>
+  <si>
+    <t>1. an email format become clickable (underlined and clickable)</t>
+  </si>
+  <si>
+    <t>1. a link format should be clickable and underlined</t>
+  </si>
+  <si>
+    <t>1. a message should be sent</t>
+  </si>
+  <si>
+    <t>1. "Typing …." message should be displayed</t>
+  </si>
+  <si>
+    <t>1. a photo is not loaded
+2. displaying a photo in message requests should require an approval from account owner</t>
+  </si>
+  <si>
+    <t>1. a message should be displayed in message lists</t>
+  </si>
+  <si>
+    <t>1. a nickname should be displayed in the message</t>
+  </si>
+  <si>
+    <t>1. a message that the color is changed should be displayed</t>
+  </si>
+  <si>
+    <t>1. a message that the theme is changed should be displayed</t>
+  </si>
+  <si>
+    <t>1. a message that nicknames are removed should be displayed</t>
+  </si>
+  <si>
+    <t>1. a message that custom colors are removed should be displayed</t>
+  </si>
+  <si>
+    <t>1. a message from a user who is not a friend on Facebook should be sent in message requests</t>
+  </si>
+  <si>
+    <t>message displayed in chat head should be identical to message displayed in messenger</t>
+  </si>
+  <si>
+    <t>message deleted in chat head should be deleted from messenger too</t>
+  </si>
+  <si>
+    <t>1. a message that custom theme are removed should be displayed</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +4611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3801,6 +4693,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3840,19 +4753,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4175,7 +5079,9 @@
   </sheetPr>
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5057,9 +5963,9 @@
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C86" sqref="C86"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5118,20 +6024,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="158.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -5261,37 +6167,37 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
@@ -7932,21 +8838,21 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
+    <row r="91" spans="1:12" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="35"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92" spans="1:12" ht="99.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
@@ -8934,27 +9840,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3687F5AB-AE89-403A-8C8A-0966CFB97A23}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="44"/>
-    <col min="2" max="2" width="27.77734375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="31"/>
+    <col min="2" max="2" width="27.77734375" style="31" customWidth="1"/>
     <col min="3" max="3" width="53.77734375" style="19" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="30.109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="44" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="44"/>
-    <col min="11" max="11" width="39.109375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="44"/>
+    <col min="6" max="6" width="24.109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="31"/>
+    <col min="11" max="11" width="39.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -8996,22 +9902,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="158.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="158.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>156</v>
       </c>
@@ -9043,7 +9949,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>156</v>
       </c>
@@ -9075,7 +9981,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>156</v>
       </c>
@@ -9107,7 +10013,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -9139,21 +10045,21 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="18" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:12" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:12" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>713</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -9165,27 +10071,27 @@
       <c r="E9" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="43" t="s">
+      <c r="I9" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>714</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -9197,27 +10103,27 @@
       <c r="E10" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I10" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="43" t="s">
+      <c r="I10" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>715</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -9229,27 +10135,27 @@
       <c r="E11" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="43" t="s">
+      <c r="I11" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>716</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -9261,27 +10167,27 @@
       <c r="E12" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="43" t="s">
+      <c r="I12" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>717</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -9293,27 +10199,27 @@
       <c r="E13" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" s="43" t="s">
+      <c r="I13" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="1:12" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>718</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -9325,27 +10231,27 @@
       <c r="E14" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I14" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="43" t="s">
+      <c r="I14" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>719</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -9357,27 +10263,27 @@
       <c r="E15" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I15" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="43" t="s">
+      <c r="I15" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="43" t="s">
+    <row r="16" spans="1:12" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>720</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -9389,27 +10295,27 @@
       <c r="E16" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="43" t="s">
+      <c r="I16" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>721</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -9421,27 +10327,27 @@
       <c r="E17" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I17" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="43" t="s">
+      <c r="I17" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="43" t="s">
+    <row r="18" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>722</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -9453,27 +10359,27 @@
       <c r="E18" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="43" t="s">
+      <c r="I18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="43" t="s">
+    <row r="19" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>723</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -9485,27 +10391,27 @@
       <c r="E19" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I19" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="43" t="s">
+      <c r="I19" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="43" t="s">
+    <row r="20" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>724</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -9517,27 +10423,27 @@
       <c r="E20" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="30" t="s">
         <v>770</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I20" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="43" t="s">
+      <c r="I20" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>725</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -9549,27 +10455,27 @@
       <c r="E21" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I21" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K21" s="43" t="s">
+      <c r="I21" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>726</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -9581,27 +10487,27 @@
       <c r="E22" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I22" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="43" t="s">
+      <c r="I22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="43" t="s">
+    <row r="23" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>727</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -9613,27 +10519,27 @@
       <c r="E23" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I23" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="43" t="s">
+      <c r="I23" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>728</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -9645,27 +10551,27 @@
       <c r="E24" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I24" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="43" t="s">
+      <c r="I24" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="43" t="s">
+    <row r="25" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>729</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -9677,27 +10583,27 @@
       <c r="E25" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I25" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K25" s="43" t="s">
+      <c r="I25" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="43" t="s">
+    <row r="26" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>730</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -9709,27 +10615,27 @@
       <c r="E26" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I26" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K26" s="43" t="s">
+      <c r="I26" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="43" t="s">
+    <row r="27" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>731</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -9741,27 +10647,27 @@
       <c r="E27" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="30" t="s">
         <v>775</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="30" t="s">
         <v>776</v>
       </c>
-      <c r="I27" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" s="43" t="s">
+      <c r="I27" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="43" t="s">
+    <row r="28" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>732</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -9773,27 +10679,27 @@
       <c r="E28" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="30" t="s">
         <v>777</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="30" t="s">
         <v>779</v>
       </c>
-      <c r="I28" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J28" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K28" s="43" t="s">
+      <c r="I28" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>733</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -9805,27 +10711,27 @@
       <c r="E29" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="30" t="s">
         <v>778</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="I29" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" s="43" t="s">
+      <c r="I29" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="43" t="s">
+    <row r="30" spans="1:11" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>734</v>
       </c>
       <c r="C30" s="19" t="s">
@@ -9837,27 +10743,27 @@
       <c r="E30" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="30" t="s">
         <v>805</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="30" t="s">
         <v>806</v>
       </c>
-      <c r="I30" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K30" s="43" t="s">
+      <c r="I30" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="43" t="s">
+    <row r="31" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>735</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -9869,27 +10775,27 @@
       <c r="E31" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="30" t="s">
         <v>782</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="I31" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K31" s="43" t="s">
+      <c r="I31" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="43" t="s">
+    <row r="32" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>736</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -9901,30 +10807,30 @@
       <c r="E32" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I32" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="43" t="s">
+      <c r="I32" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="43" t="s">
+    <row r="33" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="32" t="s">
         <v>597</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -9933,30 +10839,30 @@
       <c r="E33" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="30" t="s">
         <v>784</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I33" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33" s="43" t="s">
+      <c r="I33" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="43" t="s">
+    <row r="34" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>738</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="32" t="s">
         <v>808</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -9965,30 +10871,30 @@
       <c r="E34" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="30" t="s">
         <v>785</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="I34" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="43" t="s">
+      <c r="I34" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="43" t="s">
+    <row r="35" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>739</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="32" t="s">
         <v>598</v>
       </c>
       <c r="D35" s="19" t="s">
@@ -9997,30 +10903,30 @@
       <c r="E35" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="30" t="s">
         <v>788</v>
       </c>
-      <c r="I35" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="43" t="s">
+      <c r="I35" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="43" t="s">
+    <row r="36" spans="1:11" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="32" t="s">
         <v>599</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -10029,30 +10935,30 @@
       <c r="E36" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I36" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K36" s="43" t="s">
+      <c r="I36" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="43" t="s">
+    <row r="37" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -10061,30 +10967,30 @@
       <c r="E37" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="H37" s="43" t="s">
+      <c r="H37" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I37" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" s="43" t="s">
+      <c r="I37" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K37" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="32" t="s">
         <v>600</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -10093,30 +10999,30 @@
       <c r="E38" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I38" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K38" s="43" t="s">
+      <c r="I38" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="43" t="s">
+    <row r="39" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>826</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="33" t="s">
         <v>823</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -10125,30 +11031,30 @@
       <c r="E39" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I39" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K39" s="43" t="s">
+      <c r="I39" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="43" t="s">
+    <row r="40" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>827</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="33" t="s">
         <v>975</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -10157,30 +11063,30 @@
       <c r="E40" s="19" t="s">
         <v>933</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I40" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K40" s="43" t="s">
+      <c r="I40" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="43" t="s">
+    <row r="41" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>828</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="32" t="s">
         <v>824</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -10189,30 +11095,30 @@
       <c r="E41" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I41" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K41" s="43" t="s">
+      <c r="I41" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="43" t="s">
+    <row r="42" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="32" t="s">
         <v>825</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -10221,30 +11127,30 @@
       <c r="E42" s="19" t="s">
         <v>936</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I42" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J42" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K42" s="43" t="s">
+      <c r="I42" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K42" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="43" t="s">
+    <row r="43" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="32" t="s">
         <v>851</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -10253,30 +11159,30 @@
       <c r="E43" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I43" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K43" s="43" t="s">
+      <c r="I43" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="43" t="s">
+    <row r="44" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="32" t="s">
         <v>852</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -10285,30 +11191,30 @@
       <c r="E44" s="19" t="s">
         <v>938</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="G44" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I44" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="43" t="s">
+      <c r="I44" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="43" t="s">
+    <row r="45" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>832</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="32" t="s">
         <v>853</v>
       </c>
       <c r="D45" s="19" t="s">
@@ -10317,30 +11223,30 @@
       <c r="E45" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I45" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K45" s="43" t="s">
+      <c r="I45" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="43" t="s">
+    <row r="46" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="32" t="s">
         <v>854</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -10349,30 +11255,30 @@
       <c r="E46" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I46" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K46" s="43" t="s">
+      <c r="I46" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="43" t="s">
+    <row r="47" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>834</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="32" t="s">
         <v>856</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -10381,30 +11287,30 @@
       <c r="E47" s="19" t="s">
         <v>939</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I47" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J47" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" s="43" t="s">
+      <c r="I47" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="43" t="s">
+    <row r="48" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>835</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="32" t="s">
         <v>855</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -10413,30 +11319,30 @@
       <c r="E48" s="19" t="s">
         <v>940</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I48" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K48" s="43" t="s">
+      <c r="I48" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="43" t="s">
+    <row r="49" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>836</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="32" t="s">
         <v>867</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -10445,30 +11351,30 @@
       <c r="E49" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I49" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K49" s="43" t="s">
+      <c r="I49" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="43" t="s">
+    <row r="50" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>837</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="32" t="s">
         <v>977</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -10477,30 +11383,30 @@
       <c r="E50" s="19" t="s">
         <v>942</v>
       </c>
-      <c r="G50" s="44" t="s">
+      <c r="G50" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I50" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J50" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K50" s="43" t="s">
+      <c r="I50" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="43" t="s">
+    <row r="51" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="32" t="s">
         <v>857</v>
       </c>
       <c r="D51" s="19" t="s">
@@ -10509,30 +11415,30 @@
       <c r="E51" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I51" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J51" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K51" s="43" t="s">
+      <c r="I51" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="43" t="s">
+    <row r="52" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>839</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="32" t="s">
         <v>858</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -10541,30 +11447,30 @@
       <c r="E52" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I52" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J52" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K52" s="43" t="s">
+      <c r="I52" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J52" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="43" t="s">
+    <row r="53" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>840</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="32" t="s">
         <v>859</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -10573,30 +11479,30 @@
       <c r="E53" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="G53" s="44" t="s">
+      <c r="G53" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I53" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J53" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K53" s="43" t="s">
+      <c r="I53" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="43" t="s">
+    <row r="54" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="30" t="s">
         <v>841</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="32" t="s">
         <v>860</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -10605,30 +11511,30 @@
       <c r="E54" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H54" s="43" t="s">
+      <c r="H54" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I54" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J54" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K54" s="43" t="s">
+      <c r="I54" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="43" t="s">
+    <row r="55" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>842</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="32" t="s">
         <v>861</v>
       </c>
       <c r="D55" s="19" t="s">
@@ -10637,30 +11543,30 @@
       <c r="E55" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I55" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J55" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K55" s="43" t="s">
+      <c r="I55" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="43" t="s">
+    <row r="56" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>843</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="32" t="s">
         <v>978</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -10669,30 +11575,30 @@
       <c r="E56" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="G56" s="44" t="s">
+      <c r="G56" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H56" s="43" t="s">
+      <c r="H56" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I56" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J56" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K56" s="43" t="s">
+      <c r="I56" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K56" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="43" t="s">
+    <row r="57" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="32" t="s">
         <v>862</v>
       </c>
       <c r="D57" s="19" t="s">
@@ -10701,30 +11607,30 @@
       <c r="E57" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H57" s="43" t="s">
+      <c r="H57" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I57" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J57" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K57" s="43" t="s">
+      <c r="I57" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="43" t="s">
+    <row r="58" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>845</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="32" t="s">
         <v>863</v>
       </c>
       <c r="D58" s="19" t="s">
@@ -10733,30 +11639,30 @@
       <c r="E58" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G58" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H58" s="43" t="s">
+      <c r="H58" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I58" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J58" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K58" s="43" t="s">
+      <c r="I58" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="43" t="s">
+    <row r="59" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>846</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="32" t="s">
         <v>864</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -10765,30 +11671,30 @@
       <c r="E59" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I59" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J59" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K59" s="43" t="s">
+      <c r="I59" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K59" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="43" t="s">
+    <row r="60" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>847</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="32" t="s">
         <v>865</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -10797,30 +11703,30 @@
       <c r="E60" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H60" s="43" t="s">
+      <c r="H60" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I60" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J60" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K60" s="43" t="s">
+      <c r="I60" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="43" t="s">
+    <row r="61" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="32" t="s">
         <v>866</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -10829,30 +11735,30 @@
       <c r="E61" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I61" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J61" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K61" s="43" t="s">
+      <c r="I61" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K61" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="43" t="s">
+    <row r="62" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="32" t="s">
         <v>868</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -10861,30 +11767,30 @@
       <c r="E62" s="19" t="s">
         <v>955</v>
       </c>
-      <c r="G62" s="44" t="s">
+      <c r="G62" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H62" s="43" t="s">
+      <c r="H62" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I62" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J62" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K62" s="43" t="s">
+      <c r="I62" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K62" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="43" t="s">
+    <row r="63" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>850</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="32" t="s">
         <v>869</v>
       </c>
       <c r="D63" s="19" t="s">
@@ -10893,30 +11799,30 @@
       <c r="E63" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I63" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J63" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K63" s="43" t="s">
+      <c r="I63" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="43" t="s">
+    <row r="64" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="32" t="s">
         <v>870</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -10925,30 +11831,30 @@
       <c r="E64" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="G64" s="44" t="s">
+      <c r="G64" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I64" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J64" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K64" s="43" t="s">
+      <c r="I64" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="43" t="s">
+    <row r="65" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="32" t="s">
         <v>872</v>
       </c>
       <c r="D65" s="19" t="s">
@@ -10957,30 +11863,30 @@
       <c r="E65" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I65" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J65" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K65" s="43" t="s">
+      <c r="I65" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" s="43" t="s">
+    <row r="66" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="32" t="s">
         <v>873</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -10989,30 +11895,30 @@
       <c r="E66" s="19" t="s">
         <v>959</v>
       </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H66" s="43" t="s">
+      <c r="H66" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I66" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K66" s="43" t="s">
+      <c r="I66" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="43" t="s">
+    <row r="67" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="32" t="s">
         <v>875</v>
       </c>
       <c r="D67" s="19" t="s">
@@ -11021,30 +11927,30 @@
       <c r="E67" s="19" t="s">
         <v>960</v>
       </c>
-      <c r="G67" s="44" t="s">
+      <c r="G67" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I67" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J67" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K67" s="43" t="s">
+      <c r="I67" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K67" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="43" t="s">
+    <row r="68" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="30" t="s">
         <v>886</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="32" t="s">
         <v>874</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -11053,30 +11959,30 @@
       <c r="E68" s="19" t="s">
         <v>961</v>
       </c>
-      <c r="G68" s="44" t="s">
+      <c r="G68" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I68" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J68" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K68" s="43" t="s">
+      <c r="I68" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="43" t="s">
+    <row r="69" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="30" t="s">
         <v>887</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="32" t="s">
         <v>876</v>
       </c>
       <c r="D69" s="19" t="s">
@@ -11085,30 +11991,30 @@
       <c r="E69" s="19" t="s">
         <v>963</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I69" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J69" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K69" s="43" t="s">
+      <c r="I69" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="43" t="s">
+    <row r="70" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="32" t="s">
         <v>877</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -11117,30 +12023,30 @@
       <c r="E70" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G70" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I70" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J70" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K70" s="43" t="s">
+      <c r="I70" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="43" t="s">
+    <row r="71" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="32" t="s">
         <v>878</v>
       </c>
       <c r="D71" s="19" t="s">
@@ -11149,30 +12055,30 @@
       <c r="E71" s="19" t="s">
         <v>952</v>
       </c>
-      <c r="G71" s="44" t="s">
+      <c r="G71" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I71" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J71" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K71" s="43" t="s">
+      <c r="I71" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" s="43" t="s">
+    <row r="72" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="32" t="s">
         <v>979</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -11181,30 +12087,30 @@
       <c r="E72" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G72" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I72" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J72" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K72" s="43" t="s">
+      <c r="I72" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K72" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="43" t="s">
+    <row r="73" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="32" t="s">
         <v>879</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -11213,30 +12119,30 @@
       <c r="E73" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="G73" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I73" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J73" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K73" s="43" t="s">
+      <c r="I73" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K73" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="43" t="s">
+    <row r="74" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="30" t="s">
         <v>892</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C74" s="32" t="s">
         <v>880</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -11245,30 +12151,30 @@
       <c r="E74" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="G74" s="44" t="s">
+      <c r="G74" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I74" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J74" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K74" s="43" t="s">
+      <c r="I74" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="43" t="s">
+    <row r="75" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="32" t="s">
         <v>881</v>
       </c>
       <c r="D75" s="19" t="s">
@@ -11277,30 +12183,30 @@
       <c r="E75" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="G75" s="44" t="s">
+      <c r="G75" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I75" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J75" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75" s="43" t="s">
+      <c r="I75" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="43" t="s">
+    <row r="76" spans="1:11" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="30" t="s">
         <v>894</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="32" t="s">
         <v>882</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -11309,32 +12215,32 @@
       <c r="E76" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="G76" s="44" t="s">
+      <c r="G76" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="H76" s="43" t="s">
+      <c r="H76" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="I76" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J76" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K76" s="43" t="s">
+      <c r="I76" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="30" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="36" customFormat="1" ht="22.2" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
+    <row r="77" spans="1:11" s="43" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="42" t="s">
+    <row r="78" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="30" t="s">
         <v>813</v>
       </c>
       <c r="C78" s="19" t="s">
@@ -11352,21 +12258,21 @@
       <c r="H78" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="I78" s="44" t="s">
+      <c r="I78" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J78" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K78" s="44" t="s">
+      <c r="J78" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K78" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="42" t="s">
+    <row r="79" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="30" t="s">
         <v>906</v>
       </c>
       <c r="C79" s="19" t="s">
@@ -11384,21 +12290,21 @@
       <c r="H79" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="I79" s="44" t="s">
+      <c r="I79" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J79" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K79" s="44" t="s">
+      <c r="J79" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K79" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="42" t="s">
+    <row r="80" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="30" t="s">
         <v>907</v>
       </c>
       <c r="C80" s="19" t="s">
@@ -11419,21 +12325,21 @@
       <c r="H80" s="19" t="s">
         <v>982</v>
       </c>
-      <c r="I80" s="44" t="s">
+      <c r="I80" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J80" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K80" s="44" t="s">
+      <c r="J80" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K80" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42" t="s">
+    <row r="81" spans="1:11" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="30" t="s">
         <v>908</v>
       </c>
       <c r="C81" s="19" t="s">
@@ -11451,21 +12357,21 @@
       <c r="H81" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="I81" s="44" t="s">
+      <c r="I81" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J81" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K81" s="44" t="s">
+      <c r="J81" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K81" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42" t="s">
+    <row r="82" spans="1:11" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="30" t="s">
         <v>909</v>
       </c>
       <c r="C82" s="19" t="s">
@@ -11483,21 +12389,21 @@
       <c r="H82" s="19" t="s">
         <v>989</v>
       </c>
-      <c r="I82" s="44" t="s">
+      <c r="I82" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J82" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K82" s="44" t="s">
+      <c r="J82" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K82" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="42" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="42" t="s">
+    <row r="83" spans="1:11" ht="42" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="30" t="s">
         <v>910</v>
       </c>
       <c r="C83" s="19" t="s">
@@ -11515,21 +12421,21 @@
       <c r="H83" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I83" s="44" t="s">
+      <c r="I83" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J83" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K83" s="44" t="s">
+      <c r="J83" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K83" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="67.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+    <row r="84" spans="1:11" ht="67.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="30" t="s">
         <v>911</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -11547,21 +12453,21 @@
       <c r="H84" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="I84" s="44" t="s">
+      <c r="I84" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J84" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K84" s="44" t="s">
+      <c r="J84" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K84" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="42" t="s">
+    <row r="85" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="30" t="s">
         <v>912</v>
       </c>
       <c r="C85" s="19" t="s">
@@ -11579,21 +12485,21 @@
       <c r="H85" s="19" t="s">
         <v>1025</v>
       </c>
-      <c r="I85" s="44" t="s">
+      <c r="I85" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J85" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K85" s="44" t="s">
+      <c r="J85" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K85" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42" t="s">
+    <row r="86" spans="1:11" ht="37.799999999999997" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="30" t="s">
         <v>913</v>
       </c>
       <c r="C86" s="19" t="s">
@@ -11611,21 +12517,21 @@
       <c r="H86" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="I86" s="44" t="s">
+      <c r="I86" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J86" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K86" s="44" t="s">
+      <c r="J86" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K86" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="43.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="42" t="s">
+    <row r="87" spans="1:11" ht="43.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="30" t="s">
         <v>914</v>
       </c>
       <c r="C87" s="19" t="s">
@@ -11643,21 +12549,21 @@
       <c r="H87" s="19" t="s">
         <v>1004</v>
       </c>
-      <c r="I87" s="44" t="s">
+      <c r="I87" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J87" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K87" s="44" t="s">
+      <c r="J87" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K87" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="48.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
+    <row r="88" spans="1:11" ht="48.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="30" t="s">
         <v>915</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -11675,21 +12581,21 @@
       <c r="H88" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="I88" s="44" t="s">
+      <c r="I88" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J88" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K88" s="44" t="s">
+      <c r="J88" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K88" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="64.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="42" t="s">
+    <row r="89" spans="1:11" ht="64.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="30" t="s">
         <v>916</v>
       </c>
       <c r="C89" s="19" t="s">
@@ -11707,21 +12613,21 @@
       <c r="H89" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="I89" s="44" t="s">
+      <c r="I89" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J89" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K89" s="44" t="s">
+      <c r="J89" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K89" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42" t="s">
+    <row r="90" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="30" t="s">
         <v>917</v>
       </c>
       <c r="C90" s="19" t="s">
@@ -11739,21 +12645,21 @@
       <c r="H90" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I90" s="44" t="s">
+      <c r="I90" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J90" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K90" s="44" t="s">
+      <c r="J90" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K90" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="42" t="s">
+    <row r="91" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="30" t="s">
         <v>918</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -11771,21 +12677,21 @@
       <c r="H91" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J91" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K91" s="44" t="s">
+      <c r="J91" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K91" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
+    <row r="92" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="30" t="s">
         <v>919</v>
       </c>
       <c r="C92" s="19" t="s">
@@ -11803,21 +12709,21 @@
       <c r="H92" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I92" s="44" t="s">
+      <c r="I92" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J92" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K92" s="44" t="s">
+      <c r="J92" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="42" t="s">
+    <row r="93" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="30" t="s">
         <v>920</v>
       </c>
       <c r="C93" s="19" t="s">
@@ -11835,21 +12741,21 @@
       <c r="H93" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I93" s="44" t="s">
+      <c r="I93" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J93" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K93" s="44" t="s">
+      <c r="J93" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K93" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="42" t="s">
+    <row r="94" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="30" t="s">
         <v>921</v>
       </c>
       <c r="C94" s="19" t="s">
@@ -11867,21 +12773,21 @@
       <c r="H94" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I94" s="44" t="s">
+      <c r="I94" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J94" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K94" s="44" t="s">
+      <c r="J94" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42" t="s">
+    <row r="95" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="30" t="s">
         <v>922</v>
       </c>
       <c r="C95" s="19" t="s">
@@ -11899,21 +12805,21 @@
       <c r="H95" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I95" s="44" t="s">
+      <c r="I95" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J95" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K95" s="44" t="s">
+      <c r="J95" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="42" t="s">
+    <row r="96" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="30" t="s">
         <v>923</v>
       </c>
       <c r="C96" s="19" t="s">
@@ -11931,21 +12837,21 @@
       <c r="H96" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J96" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K96" s="44" t="s">
+      <c r="J96" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K96" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42" t="s">
+    <row r="97" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="30" t="s">
         <v>924</v>
       </c>
       <c r="C97" s="19" t="s">
@@ -11963,21 +12869,21 @@
       <c r="H97" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I97" s="44" t="s">
+      <c r="I97" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J97" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K97" s="44" t="s">
+      <c r="J97" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K97" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="42" t="s">
+    <row r="98" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="30" t="s">
         <v>925</v>
       </c>
       <c r="C98" s="19" t="s">
@@ -11995,21 +12901,21 @@
       <c r="H98" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I98" s="44" t="s">
+      <c r="I98" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J98" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K98" s="44" t="s">
+      <c r="J98" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K98" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="42" t="s">
+    <row r="99" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="30" t="s">
         <v>926</v>
       </c>
       <c r="C99" s="19" t="s">
@@ -12027,21 +12933,21 @@
       <c r="H99" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="I99" s="44" t="s">
+      <c r="I99" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J99" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K99" s="44" t="s">
+      <c r="J99" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K99" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="38.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="42" t="s">
+    <row r="100" spans="1:11" ht="38.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="30" t="s">
         <v>927</v>
       </c>
       <c r="C100" s="19" t="s">
@@ -12059,21 +12965,21 @@
       <c r="H100" s="19" t="s">
         <v>1030</v>
       </c>
-      <c r="I100" s="44" t="s">
+      <c r="I100" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J100" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K100" s="44" t="s">
+      <c r="J100" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K100" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="45.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="42" t="s">
+    <row r="101" spans="1:11" ht="45.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="30" t="s">
         <v>928</v>
       </c>
       <c r="C101" s="19" t="s">
@@ -12091,21 +12997,21 @@
       <c r="H101" s="19" t="s">
         <v>1032</v>
       </c>
-      <c r="I101" s="44" t="s">
+      <c r="I101" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J101" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K101" s="44" t="s">
+      <c r="J101" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K101" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="22.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="42" t="s">
+    <row r="102" spans="1:11" ht="22.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="30" t="s">
         <v>929</v>
       </c>
       <c r="C102" s="19" t="s">
@@ -12123,17 +13029,17 @@
       <c r="H102" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="I102" s="44" t="s">
+      <c r="I102" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="J102" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K102" s="44" t="s">
+      <c r="J102" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K102" s="31" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="103" spans="1:11" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
     </row>
@@ -12151,13 +13057,1730 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEEDA25-5BF6-4D84-A2E7-DF6C2627D536}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="35"/>
+    <col min="2" max="2" width="29.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="35"/>
+    <col min="7" max="7" width="32.6640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="21" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="158.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="19" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="19" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="19" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="19" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="19" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="19" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="19" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="19" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="19" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="19" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="19" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="19" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="19" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="19" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="19" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="19" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="19" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="19" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="19" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="19" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="19" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="19" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="19" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="19" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="19" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="19" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="19" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+    </row>
+    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+    </row>
+    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+    </row>
+    <row r="47" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+    </row>
+    <row r="50" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+    </row>
+    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+    </row>
+    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+    </row>
+    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+    </row>
+    <row r="64" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+    </row>
+    <row r="65" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+    </row>
+    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+    </row>
+    <row r="67" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+    </row>
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+    </row>
+    <row r="69" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+    </row>
+    <row r="70" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+    </row>
+    <row r="71" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A43:XFD43"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12179,19 +14802,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -12236,7 +14859,7 @@
       <c r="A6" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="47" t="s">
         <v>457</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -12246,27 +14869,27 @@
     </row>
     <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
-      <c r="B7" s="40"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="25" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="25" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="25" t="s">
         <v>461</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="48" t="s">
         <v>314</v>
       </c>
       <c r="C10" t="s">
@@ -12274,493 +14897,493 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="25" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="25" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="25" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="25" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="25" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="25" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="25" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="25" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="25" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="25" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="25" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="25" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="25" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="25" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="25" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="25" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="25" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="25" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="25" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="25" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="25" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="25" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="25" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="25" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="25" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="25" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="25" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="25" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="41"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="25" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="25" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="25" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="25" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="25" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="25" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="41"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="25" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="25" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="41"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="25" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="41"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="25" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="25" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="41"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="25" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="41"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="25" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="25" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="41"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="25" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="25" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="25" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="41"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="25" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="25" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="25" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="41"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="25" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="25" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="25" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="41"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="25" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="25" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="41"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="25" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="25" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="41"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="25" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="41"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="25" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="25" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="41"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="41"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="25" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="41"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="41"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="41"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="41"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="25" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="41"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="25" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="41"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="25" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="41"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="25" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="25" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="25" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="41"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="25" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="25" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="41"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="25" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="25" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="41"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="25" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="41"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="25" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="48" t="s">
         <v>545</v>
       </c>
       <c r="C92" t="s">
@@ -12768,175 +15391,175 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="41"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="25" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="41"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="25" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="41"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="25" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="41"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="25" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="41"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="25" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="41"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="25" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="41"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="25" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="41"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="25" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="41"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="25" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="41"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="25" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="41"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="41"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="25" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="41"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="25" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="41"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="25" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="41"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="25" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="41"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="41"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" s="41"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="41"/>
+      <c r="B111" s="48"/>
       <c r="C111" s="25" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="41"/>
+      <c r="B112" s="48"/>
       <c r="C112" s="25" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="41"/>
+      <c r="B113" s="48"/>
       <c r="C113" s="25" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="41"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="25" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="41"/>
+      <c r="B115" s="48"/>
       <c r="C115" s="25" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="41"/>
+      <c r="B116" s="48"/>
       <c r="C116" s="25" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="41"/>
+      <c r="B117" s="48"/>
       <c r="C117" s="25" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="41"/>
+      <c r="B118" s="48"/>
       <c r="C118" s="25" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="41"/>
+      <c r="B119" s="48"/>
       <c r="C119" s="25" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B120" s="41"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="25" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B121" s="41"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="25" t="s">
         <v>574</v>
       </c>
